--- a/data/OK.xlsx
+++ b/data/OK.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WORK\25Summer\AD685S A1 Quantitative Methods for Finance (Summer 1 2025)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21849774-9BCF-4DE0-9540-A23C5EA42D2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B162E4C0-EA7D-403B-9543-CCDA6760625E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,10 +27,12 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
-    <t>Date</t>
+    <t>Close</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Close </t>
+    <t>Date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -362,7 +364,7 @@
   <dimension ref="A1:I757"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -373,10 +375,10 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">

--- a/data/OK.xlsx
+++ b/data/OK.xlsx
@@ -8,17 +8,31 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WORK\25Summer\AD685S A1 Quantitative Methods for Finance (Summer 1 2025)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B162E4C0-EA7D-403B-9543-CCDA6760625E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4BFEA1D-35FD-45CF-ACAF-7380A3622E80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$B$757</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -364,7 +378,7 @@
   <dimension ref="A1:I757"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -383,6300 +397,6300 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>44925</v>
+        <v>43832</v>
       </c>
       <c r="B2">
-        <v>63.61</v>
+        <v>54.99</v>
       </c>
       <c r="I2" s="1"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>44924</v>
+        <v>43833</v>
       </c>
       <c r="B3">
-        <v>63.95</v>
+        <v>54.69</v>
       </c>
       <c r="I3" s="1"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>44923</v>
+        <v>43836</v>
       </c>
       <c r="B4">
-        <v>63.57</v>
+        <v>54.67</v>
       </c>
       <c r="I4" s="1"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>44922</v>
+        <v>43837</v>
       </c>
       <c r="B5">
-        <v>64.209999999999994</v>
+        <v>54.25</v>
       </c>
       <c r="I5" s="1"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>44918</v>
+        <v>43838</v>
       </c>
       <c r="B6">
-        <v>63.82</v>
+        <v>54.35</v>
       </c>
       <c r="I6" s="1"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>44917</v>
+        <v>43839</v>
       </c>
       <c r="B7">
-        <v>63.34</v>
+        <v>55.34</v>
       </c>
       <c r="I7" s="1"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>44916</v>
+        <v>43840</v>
       </c>
       <c r="B8">
-        <v>63.8</v>
+        <v>55.53</v>
       </c>
       <c r="I8" s="1"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>44915</v>
+        <v>43843</v>
       </c>
       <c r="B9">
-        <v>62.79</v>
+        <v>56.13</v>
       </c>
       <c r="I9" s="1"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>44914</v>
+        <v>43844</v>
       </c>
       <c r="B10">
-        <v>62.84</v>
+        <v>56</v>
       </c>
       <c r="I10" s="1"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>44911</v>
+        <v>43845</v>
       </c>
       <c r="B11">
-        <v>62.75</v>
+        <v>56.7</v>
       </c>
       <c r="I11" s="1"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>44910</v>
+        <v>43846</v>
       </c>
       <c r="B12">
-        <v>63.11</v>
+        <v>56.82</v>
       </c>
       <c r="I12" s="1"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>44909</v>
+        <v>43847</v>
       </c>
       <c r="B13">
-        <v>63.99</v>
+        <v>56.94</v>
       </c>
       <c r="I13" s="1"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>44908</v>
+        <v>43851</v>
       </c>
       <c r="B14">
-        <v>63.99</v>
+        <v>57.17</v>
       </c>
       <c r="I14" s="1"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>44907</v>
+        <v>43852</v>
       </c>
       <c r="B15">
-        <v>63.97</v>
+        <v>57.61</v>
       </c>
       <c r="I15" s="1"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>44904</v>
+        <v>43853</v>
       </c>
       <c r="B16">
-        <v>63.14</v>
+        <v>57.83</v>
       </c>
       <c r="I16" s="1"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>44903</v>
+        <v>43854</v>
       </c>
       <c r="B17">
-        <v>63.81</v>
+        <v>57.68</v>
       </c>
       <c r="I17" s="1"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>44902</v>
+        <v>43857</v>
       </c>
       <c r="B18">
-        <v>63.54</v>
+        <v>57.48</v>
       </c>
       <c r="I18" s="1"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>44901</v>
+        <v>43858</v>
       </c>
       <c r="B19">
-        <v>63.44</v>
+        <v>57.01</v>
       </c>
       <c r="I19" s="1"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>44900</v>
+        <v>43859</v>
       </c>
       <c r="B20">
-        <v>63.47</v>
+        <v>57.01</v>
       </c>
       <c r="I20" s="1"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>44897</v>
+        <v>43860</v>
       </c>
       <c r="B21">
-        <v>64.349999999999994</v>
+        <v>58.86</v>
       </c>
       <c r="I21" s="1"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <v>44896</v>
+        <v>43861</v>
       </c>
       <c r="B22">
-        <v>63.79</v>
+        <v>58.4</v>
       </c>
       <c r="I22" s="1"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <v>44895</v>
+        <v>43864</v>
       </c>
       <c r="B23">
-        <v>63.61</v>
+        <v>58.58</v>
       </c>
       <c r="I23" s="1"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <v>44894</v>
+        <v>43865</v>
       </c>
       <c r="B24">
-        <v>62.48</v>
+        <v>58.84</v>
       </c>
       <c r="I24" s="1"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
-        <v>44893</v>
+        <v>43866</v>
       </c>
       <c r="B25">
-        <v>62.7</v>
+        <v>58.85</v>
       </c>
       <c r="I25" s="1"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
-        <v>44890</v>
+        <v>43867</v>
       </c>
       <c r="B26">
-        <v>62.69</v>
+        <v>58.99</v>
       </c>
       <c r="I26" s="1"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
-        <v>44888</v>
+        <v>43868</v>
       </c>
       <c r="B27">
-        <v>62.63</v>
+        <v>59.19</v>
       </c>
       <c r="I27" s="1"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
-        <v>44887</v>
+        <v>43871</v>
       </c>
       <c r="B28">
-        <v>62.35</v>
+        <v>59.75</v>
       </c>
       <c r="I28" s="1"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
-        <v>44886</v>
+        <v>43872</v>
       </c>
       <c r="B29">
-        <v>62.08</v>
+        <v>59.59</v>
       </c>
       <c r="I29" s="1"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
-        <v>44883</v>
+        <v>43873</v>
       </c>
       <c r="B30">
-        <v>61.14</v>
+        <v>59.41</v>
       </c>
       <c r="I30" s="1"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
-        <v>44882</v>
+        <v>43874</v>
       </c>
       <c r="B31">
-        <v>60.71</v>
+        <v>59.61</v>
       </c>
       <c r="I31" s="1"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
-        <v>44881</v>
+        <v>43875</v>
       </c>
       <c r="B32">
-        <v>60.52</v>
+        <v>59.95</v>
       </c>
       <c r="I32" s="1"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
-        <v>44880</v>
+        <v>43879</v>
       </c>
       <c r="B33">
-        <v>60.63</v>
+        <v>59.53</v>
       </c>
       <c r="I33" s="1"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
-        <v>44879</v>
+        <v>43880</v>
       </c>
       <c r="B34">
-        <v>60.73</v>
+        <v>59.77</v>
       </c>
       <c r="I34" s="1"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
-        <v>44876</v>
+        <v>43881</v>
       </c>
       <c r="B35">
-        <v>61.32</v>
+        <v>59.72</v>
       </c>
       <c r="I35" s="1"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
-        <v>44875</v>
+        <v>43882</v>
       </c>
       <c r="B36">
-        <v>60.88</v>
+        <v>60.13</v>
       </c>
       <c r="I36" s="1"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
-        <v>44874</v>
+        <v>43885</v>
       </c>
       <c r="B37">
-        <v>58.77</v>
+        <v>58.65</v>
       </c>
       <c r="I37" s="1"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
-        <v>44873</v>
+        <v>43886</v>
       </c>
       <c r="B38">
-        <v>59.6</v>
+        <v>57.82</v>
       </c>
       <c r="I38" s="1"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
-        <v>44872</v>
+        <v>43887</v>
       </c>
       <c r="B39">
-        <v>59.49</v>
+        <v>57.6</v>
       </c>
       <c r="I39" s="1"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
-        <v>44869</v>
+        <v>43888</v>
       </c>
       <c r="B40">
-        <v>59.26</v>
+        <v>54.93</v>
       </c>
       <c r="I40" s="1"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
-        <v>44868</v>
+        <v>43889</v>
       </c>
       <c r="B41">
-        <v>58.78</v>
+        <v>53.49</v>
       </c>
       <c r="I41" s="1"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
-        <v>44867</v>
+        <v>43892</v>
       </c>
       <c r="B42">
-        <v>58.81</v>
+        <v>55.92</v>
       </c>
       <c r="I42" s="1"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
-        <v>44866</v>
+        <v>43893</v>
       </c>
       <c r="B43">
-        <v>59.64</v>
+        <v>56.06</v>
       </c>
       <c r="I43" s="1"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
-        <v>44865</v>
+        <v>43894</v>
       </c>
       <c r="B44">
-        <v>59.85</v>
+        <v>58.92</v>
       </c>
       <c r="I44" s="1"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
-        <v>44862</v>
+        <v>43895</v>
       </c>
       <c r="B45">
-        <v>60.76</v>
+        <v>56.74</v>
       </c>
       <c r="I45" s="1"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
-        <v>44861</v>
+        <v>43896</v>
       </c>
       <c r="B46">
-        <v>59.53</v>
+        <v>55.26</v>
       </c>
       <c r="I46" s="1"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
-        <v>44860</v>
+        <v>43899</v>
       </c>
       <c r="B47">
-        <v>59.39</v>
+        <v>51.86</v>
       </c>
       <c r="I47" s="1"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
-        <v>44859</v>
+        <v>43900</v>
       </c>
       <c r="B48">
-        <v>58.95</v>
+        <v>53.66</v>
       </c>
       <c r="I48" s="1"/>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
-        <v>44858</v>
+        <v>43901</v>
       </c>
       <c r="B49">
-        <v>57.57</v>
+        <v>52.21</v>
       </c>
       <c r="I49" s="1"/>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
-        <v>44855</v>
+        <v>43902</v>
       </c>
       <c r="B50">
-        <v>55.96</v>
+        <v>47.16</v>
       </c>
       <c r="I50" s="1"/>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
-        <v>44854</v>
+        <v>43903</v>
       </c>
       <c r="B51">
-        <v>55.08</v>
+        <v>48.47</v>
       </c>
       <c r="I51" s="1"/>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
-        <v>44853</v>
+        <v>43906</v>
       </c>
       <c r="B52">
-        <v>55.96</v>
+        <v>45.26</v>
       </c>
       <c r="I52" s="1"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
-        <v>44852</v>
+        <v>43907</v>
       </c>
       <c r="B53">
-        <v>56.44</v>
+        <v>47.18</v>
       </c>
       <c r="I53" s="1"/>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
-        <v>44851</v>
+        <v>43908</v>
       </c>
       <c r="B54">
-        <v>55.69</v>
+        <v>44.85</v>
       </c>
       <c r="I54" s="1"/>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
-        <v>44848</v>
+        <v>43909</v>
       </c>
       <c r="B55">
-        <v>54.98</v>
+        <v>41.83</v>
       </c>
       <c r="I55" s="1"/>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
-        <v>44847</v>
+        <v>43910</v>
       </c>
       <c r="B56">
-        <v>55.87</v>
+        <v>38.299999999999997</v>
       </c>
       <c r="I56" s="1"/>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
-        <v>44846</v>
+        <v>43913</v>
       </c>
       <c r="B57">
-        <v>55.14</v>
+        <v>37.56</v>
       </c>
       <c r="I57" s="1"/>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
-        <v>44845</v>
+        <v>43914</v>
       </c>
       <c r="B58">
-        <v>54.48</v>
+        <v>39.450000000000003</v>
       </c>
       <c r="I58" s="1"/>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
-        <v>44844</v>
+        <v>43915</v>
       </c>
       <c r="B59">
-        <v>54.39</v>
+        <v>41.61</v>
       </c>
       <c r="I59" s="1"/>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
-        <v>44841</v>
+        <v>43916</v>
       </c>
       <c r="B60">
-        <v>54.51</v>
+        <v>44.29</v>
       </c>
       <c r="I60" s="1"/>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
-        <v>44840</v>
+        <v>43917</v>
       </c>
       <c r="B61">
-        <v>55.03</v>
+        <v>42.81</v>
       </c>
       <c r="I61" s="1"/>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
-        <v>44839</v>
+        <v>43920</v>
       </c>
       <c r="B62">
-        <v>56.24</v>
+        <v>45</v>
       </c>
       <c r="I62" s="1"/>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
-        <v>44838</v>
+        <v>43921</v>
       </c>
       <c r="B63">
-        <v>56.78</v>
+        <v>44.25</v>
       </c>
       <c r="I63" s="1"/>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
-        <v>44837</v>
+        <v>43922</v>
       </c>
       <c r="B64">
-        <v>56.65</v>
+        <v>42.12</v>
       </c>
       <c r="I64" s="1"/>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
-        <v>44834</v>
+        <v>43923</v>
       </c>
       <c r="B65">
-        <v>56.02</v>
+        <v>43.95</v>
       </c>
       <c r="I65" s="1"/>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
-        <v>44833</v>
+        <v>43924</v>
       </c>
       <c r="B66">
-        <v>56.57</v>
+        <v>43.83</v>
       </c>
       <c r="I66" s="1"/>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
-        <v>44832</v>
+        <v>43927</v>
       </c>
       <c r="B67">
-        <v>56.98</v>
+        <v>46.67</v>
       </c>
       <c r="I67" s="1"/>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
-        <v>44831</v>
+        <v>43928</v>
       </c>
       <c r="B68">
-        <v>56.38</v>
+        <v>46.51</v>
       </c>
       <c r="I68" s="1"/>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
-        <v>44830</v>
+        <v>43929</v>
       </c>
       <c r="B69">
-        <v>57.87</v>
+        <v>47.82</v>
       </c>
       <c r="I69" s="1"/>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
-        <v>44827</v>
+        <v>43930</v>
       </c>
       <c r="B70">
-        <v>58.6</v>
+        <v>49</v>
       </c>
       <c r="I70" s="1"/>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
-        <v>44826</v>
+        <v>43934</v>
       </c>
       <c r="B71">
-        <v>59.26</v>
+        <v>46.93</v>
       </c>
       <c r="I71" s="1"/>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
-        <v>44825</v>
+        <v>43935</v>
       </c>
       <c r="B72">
-        <v>59.4</v>
+        <v>48.92</v>
       </c>
       <c r="I72" s="1"/>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
-        <v>44824</v>
+        <v>43936</v>
       </c>
       <c r="B73">
-        <v>59.9</v>
+        <v>47.61</v>
       </c>
       <c r="I73" s="1"/>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
-        <v>44823</v>
+        <v>43937</v>
       </c>
       <c r="B74">
-        <v>59.99</v>
+        <v>47.1</v>
       </c>
       <c r="I74" s="1"/>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
-        <v>44820</v>
+        <v>43938</v>
       </c>
       <c r="B75">
-        <v>59.54</v>
+        <v>48.06</v>
       </c>
       <c r="I75" s="1"/>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
-        <v>44819</v>
+        <v>43941</v>
       </c>
       <c r="B76">
-        <v>59.53</v>
+        <v>46.53</v>
       </c>
       <c r="I76" s="1"/>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
-        <v>44818</v>
+        <v>43942</v>
       </c>
       <c r="B77">
-        <v>60.79</v>
+        <v>45.38</v>
       </c>
       <c r="I77" s="1"/>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
-        <v>44817</v>
+        <v>43943</v>
       </c>
       <c r="B78">
-        <v>60.47</v>
+        <v>45.68</v>
       </c>
       <c r="I78" s="1"/>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
-        <v>44816</v>
+        <v>43944</v>
       </c>
       <c r="B79">
-        <v>62.5</v>
+        <v>45.07</v>
       </c>
       <c r="I79" s="1"/>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
-        <v>44813</v>
+        <v>43945</v>
       </c>
       <c r="B80">
-        <v>62.32</v>
+        <v>45.43</v>
       </c>
       <c r="I80" s="1"/>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
-        <v>44812</v>
+        <v>43948</v>
       </c>
       <c r="B81">
-        <v>62.12</v>
+        <v>46.78</v>
       </c>
       <c r="I81" s="1"/>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
-        <v>44811</v>
+        <v>43949</v>
       </c>
       <c r="B82">
-        <v>62.31</v>
+        <v>46.74</v>
       </c>
       <c r="I82" s="1"/>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
-        <v>44810</v>
+        <v>43950</v>
       </c>
       <c r="B83">
-        <v>61.18</v>
+        <v>47.12</v>
       </c>
       <c r="I83" s="1"/>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
-        <v>44806</v>
+        <v>43951</v>
       </c>
       <c r="B84">
-        <v>61.15</v>
+        <v>45.89</v>
       </c>
       <c r="I84" s="1"/>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
-        <v>44805</v>
+        <v>43952</v>
       </c>
       <c r="B85">
-        <v>62</v>
+        <v>45.6</v>
       </c>
       <c r="I85" s="1"/>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
-        <v>44804</v>
+        <v>43955</v>
       </c>
       <c r="B86">
-        <v>61.71</v>
+        <v>45.14</v>
       </c>
       <c r="I86" s="1"/>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
-        <v>44803</v>
+        <v>43956</v>
       </c>
       <c r="B87">
-        <v>62.15</v>
+        <v>45.4</v>
       </c>
       <c r="I87" s="1"/>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
-        <v>44802</v>
+        <v>43957</v>
       </c>
       <c r="B88">
-        <v>62.73</v>
+        <v>44.75</v>
       </c>
       <c r="I88" s="1"/>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
-        <v>44799</v>
+        <v>43958</v>
       </c>
       <c r="B89">
-        <v>63.11</v>
+        <v>44.6</v>
       </c>
       <c r="I89" s="1"/>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
-        <v>44798</v>
+        <v>43959</v>
       </c>
       <c r="B90">
-        <v>64.67</v>
+        <v>46.11</v>
       </c>
       <c r="I90" s="1"/>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
-        <v>44797</v>
+        <v>43962</v>
       </c>
       <c r="B91">
-        <v>64.36</v>
+        <v>45.54</v>
       </c>
       <c r="I91" s="1"/>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
-        <v>44796</v>
+        <v>43963</v>
       </c>
       <c r="B92">
-        <v>64.27</v>
+        <v>44.82</v>
       </c>
       <c r="I92" s="1"/>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
-        <v>44795</v>
+        <v>43964</v>
       </c>
       <c r="B93">
-        <v>64.2</v>
+        <v>43.94</v>
       </c>
       <c r="I93" s="1"/>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
-        <v>44792</v>
+        <v>43965</v>
       </c>
       <c r="B94">
-        <v>65.17</v>
+        <v>43.7</v>
       </c>
       <c r="I94" s="1"/>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
-        <v>44791</v>
+        <v>43966</v>
       </c>
       <c r="B95">
-        <v>65.22</v>
+        <v>43.26</v>
       </c>
       <c r="I95" s="1"/>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
-        <v>44790</v>
+        <v>43969</v>
       </c>
       <c r="B96">
-        <v>64.88</v>
+        <v>44.97</v>
       </c>
       <c r="I96" s="1"/>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
-        <v>44789</v>
+        <v>43970</v>
       </c>
       <c r="B97">
-        <v>65.03</v>
+        <v>44.54</v>
       </c>
       <c r="I97" s="1"/>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
-        <v>44788</v>
+        <v>43971</v>
       </c>
       <c r="B98">
-        <v>64.5</v>
+        <v>45.89</v>
       </c>
       <c r="I98" s="1"/>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
-        <v>44785</v>
+        <v>43972</v>
       </c>
       <c r="B99">
-        <v>63.7</v>
+        <v>45.17</v>
       </c>
       <c r="I99" s="1"/>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
-        <v>44784</v>
+        <v>43973</v>
       </c>
       <c r="B100">
-        <v>63.22</v>
+        <v>45.03</v>
       </c>
       <c r="I100" s="1"/>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
-        <v>44783</v>
+        <v>43977</v>
       </c>
       <c r="B101">
-        <v>63.65</v>
+        <v>46.09</v>
       </c>
       <c r="I101" s="1"/>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
-        <v>44782</v>
+        <v>43978</v>
       </c>
       <c r="B102">
-        <v>63.05</v>
+        <v>46.73</v>
       </c>
       <c r="I102" s="1"/>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
-        <v>44781</v>
+        <v>43979</v>
       </c>
       <c r="B103">
-        <v>62.97</v>
+        <v>47.09</v>
       </c>
       <c r="I103" s="1"/>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
-        <v>44778</v>
+        <v>43980</v>
       </c>
       <c r="B104">
-        <v>63.38</v>
+        <v>46.68</v>
       </c>
       <c r="I104" s="1"/>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
-        <v>44777</v>
+        <v>43983</v>
       </c>
       <c r="B105">
-        <v>63.67</v>
+        <v>46.99</v>
       </c>
       <c r="I105" s="1"/>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
-        <v>44776</v>
+        <v>43984</v>
       </c>
       <c r="B106">
-        <v>63.92</v>
+        <v>46.9</v>
       </c>
       <c r="I106" s="1"/>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
-        <v>44775</v>
+        <v>43985</v>
       </c>
       <c r="B107">
-        <v>63.64</v>
+        <v>47.9</v>
       </c>
       <c r="I107" s="1"/>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
-        <v>44774</v>
+        <v>43986</v>
       </c>
       <c r="B108">
-        <v>64.52</v>
+        <v>47.92</v>
       </c>
       <c r="I108" s="1"/>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
-        <v>44771</v>
+        <v>43987</v>
       </c>
       <c r="B109">
-        <v>64.17</v>
+        <v>49.09</v>
       </c>
       <c r="I109" s="1"/>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
-        <v>44770</v>
+        <v>43990</v>
       </c>
       <c r="B110">
-        <v>64.06</v>
+        <v>49.85</v>
       </c>
       <c r="I110" s="1"/>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
-        <v>44769</v>
+        <v>43991</v>
       </c>
       <c r="B111">
-        <v>63.01</v>
+        <v>49</v>
       </c>
       <c r="I111" s="1"/>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
-        <v>44768</v>
+        <v>43992</v>
       </c>
       <c r="B112">
-        <v>63.21</v>
+        <v>48.62</v>
       </c>
       <c r="I112" s="1"/>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
-        <v>44767</v>
+        <v>43993</v>
       </c>
       <c r="B113">
-        <v>62.19</v>
+        <v>45.54</v>
       </c>
       <c r="I113" s="1"/>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
-        <v>44764</v>
+        <v>43994</v>
       </c>
       <c r="B114">
-        <v>61.59</v>
+        <v>45.6</v>
       </c>
       <c r="I114" s="1"/>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
-        <v>44763</v>
+        <v>43997</v>
       </c>
       <c r="B115">
-        <v>61.36</v>
+        <v>46.3</v>
       </c>
       <c r="I115" s="1"/>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
-        <v>44762</v>
+        <v>43998</v>
       </c>
       <c r="B116">
-        <v>61.5</v>
+        <v>46.77</v>
       </c>
       <c r="I116" s="1"/>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
-        <v>44761</v>
+        <v>43999</v>
       </c>
       <c r="B117">
-        <v>62.53</v>
+        <v>46.58</v>
       </c>
       <c r="I117" s="1"/>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
-        <v>44760</v>
+        <v>44000</v>
       </c>
       <c r="B118">
-        <v>61.65</v>
+        <v>46.99</v>
       </c>
       <c r="I118" s="1"/>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
-        <v>44757</v>
+        <v>44001</v>
       </c>
       <c r="B119">
-        <v>62.5</v>
+        <v>46.02</v>
       </c>
       <c r="I119" s="1"/>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
-        <v>44756</v>
+        <v>44004</v>
       </c>
       <c r="B120">
-        <v>62.18</v>
+        <v>45.74</v>
       </c>
       <c r="I120" s="1"/>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
-        <v>44755</v>
+        <v>44005</v>
       </c>
       <c r="B121">
-        <v>62.38</v>
+        <v>45.64</v>
       </c>
       <c r="I121" s="1"/>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
-        <v>44754</v>
+        <v>44006</v>
       </c>
       <c r="B122">
-        <v>62.67</v>
+        <v>44.65</v>
       </c>
       <c r="I122" s="1"/>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
-        <v>44753</v>
+        <v>44007</v>
       </c>
       <c r="B123">
-        <v>62.94</v>
+        <v>44.93</v>
       </c>
       <c r="I123" s="1"/>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
-        <v>44750</v>
+        <v>44008</v>
       </c>
       <c r="B124">
-        <v>63.14</v>
+        <v>43.57</v>
       </c>
       <c r="I124" s="1"/>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
-        <v>44749</v>
+        <v>44011</v>
       </c>
       <c r="B125">
-        <v>62.91</v>
+        <v>44.36</v>
       </c>
       <c r="I125" s="1"/>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
-        <v>44748</v>
+        <v>44012</v>
       </c>
       <c r="B126">
-        <v>63.41</v>
+        <v>44.68</v>
       </c>
       <c r="I126" s="1"/>
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
-        <v>44747</v>
+        <v>44013</v>
       </c>
       <c r="B127">
-        <v>63.28</v>
+        <v>44.82</v>
       </c>
       <c r="I127" s="1"/>
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
-        <v>44743</v>
+        <v>44014</v>
       </c>
       <c r="B128">
-        <v>64.38</v>
+        <v>44.88</v>
       </c>
       <c r="I128" s="1"/>
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
-        <v>44742</v>
+        <v>44018</v>
       </c>
       <c r="B129">
-        <v>62.91</v>
+        <v>45.23</v>
       </c>
       <c r="I129" s="1"/>
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
-        <v>44741</v>
+        <v>44019</v>
       </c>
       <c r="B130">
-        <v>62.73</v>
+        <v>45.21</v>
       </c>
       <c r="I130" s="1"/>
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
-        <v>44740</v>
+        <v>44020</v>
       </c>
       <c r="B131">
-        <v>62.28</v>
+        <v>45.07</v>
       </c>
       <c r="I131" s="1"/>
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
-        <v>44739</v>
+        <v>44021</v>
       </c>
       <c r="B132">
-        <v>62.91</v>
+        <v>43.91</v>
       </c>
       <c r="I132" s="1"/>
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
-        <v>44736</v>
+        <v>44022</v>
       </c>
       <c r="B133">
-        <v>63.04</v>
+        <v>45.15</v>
       </c>
       <c r="I133" s="1"/>
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
-        <v>44735</v>
+        <v>44025</v>
       </c>
       <c r="B134">
-        <v>61.88</v>
+        <v>45.25</v>
       </c>
       <c r="I134" s="1"/>
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
-        <v>44734</v>
+        <v>44026</v>
       </c>
       <c r="B135">
-        <v>61.15</v>
+        <v>45.87</v>
       </c>
       <c r="I135" s="1"/>
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
-        <v>44733</v>
+        <v>44027</v>
       </c>
       <c r="B136">
-        <v>60.7</v>
+        <v>46.4</v>
       </c>
       <c r="I136" s="1"/>
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
-        <v>44729</v>
+        <v>44028</v>
       </c>
       <c r="B137">
-        <v>59.43</v>
+        <v>46.15</v>
       </c>
       <c r="I137" s="1"/>
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
-        <v>44728</v>
+        <v>44029</v>
       </c>
       <c r="B138">
-        <v>59.07</v>
+        <v>46.82</v>
       </c>
       <c r="I138" s="1"/>
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
-        <v>44727</v>
+        <v>44032</v>
       </c>
       <c r="B139">
-        <v>59.67</v>
+        <v>46.12</v>
       </c>
       <c r="I139" s="1"/>
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
-        <v>44726</v>
+        <v>44033</v>
       </c>
       <c r="B140">
-        <v>59.23</v>
+        <v>47.2</v>
       </c>
       <c r="I140" s="1"/>
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
-        <v>44725</v>
+        <v>44034</v>
       </c>
       <c r="B141">
-        <v>61.34</v>
+        <v>48.48</v>
       </c>
       <c r="I141" s="1"/>
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
-        <v>44722</v>
+        <v>44035</v>
       </c>
       <c r="B142">
-        <v>61.41</v>
+        <v>48.28</v>
       </c>
       <c r="I142" s="1"/>
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
-        <v>44721</v>
+        <v>44036</v>
       </c>
       <c r="B143">
-        <v>61.8</v>
+        <v>48.49</v>
       </c>
       <c r="I143" s="1"/>
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
-        <v>44720</v>
+        <v>44039</v>
       </c>
       <c r="B144">
-        <v>62.89</v>
+        <v>48.48</v>
       </c>
       <c r="I144" s="1"/>
     </row>
     <row r="145" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
-        <v>44719</v>
+        <v>44040</v>
       </c>
       <c r="B145">
-        <v>63.25</v>
+        <v>48.18</v>
       </c>
       <c r="I145" s="1"/>
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
-        <v>44718</v>
+        <v>44041</v>
       </c>
       <c r="B146">
-        <v>62.87</v>
+        <v>48.02</v>
       </c>
       <c r="I146" s="1"/>
     </row>
     <row r="147" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
-        <v>44715</v>
+        <v>44042</v>
       </c>
       <c r="B147">
-        <v>62.97</v>
+        <v>47.69</v>
       </c>
       <c r="I147" s="1"/>
     </row>
     <row r="148" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
-        <v>44714</v>
+        <v>44043</v>
       </c>
       <c r="B148">
-        <v>63.73</v>
+        <v>47.24</v>
       </c>
       <c r="I148" s="1"/>
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
-        <v>44713</v>
+        <v>44046</v>
       </c>
       <c r="B149">
-        <v>63.07</v>
+        <v>46.3</v>
       </c>
       <c r="I149" s="1"/>
     </row>
     <row r="150" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
-        <v>44712</v>
+        <v>44047</v>
       </c>
       <c r="B150">
-        <v>63.38</v>
+        <v>46.69</v>
       </c>
       <c r="I150" s="1"/>
     </row>
     <row r="151" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
-        <v>44708</v>
+        <v>44048</v>
       </c>
       <c r="B151">
-        <v>64.680000000000007</v>
+        <v>47.22</v>
       </c>
       <c r="I151" s="1"/>
     </row>
     <row r="152" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
-        <v>44707</v>
+        <v>44049</v>
       </c>
       <c r="B152">
-        <v>64.3</v>
+        <v>47.48</v>
       </c>
       <c r="I152" s="1"/>
     </row>
     <row r="153" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
-        <v>44706</v>
+        <v>44050</v>
       </c>
       <c r="B153">
-        <v>64.069999999999993</v>
+        <v>47.8</v>
       </c>
       <c r="I153" s="1"/>
     </row>
     <row r="154" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
-        <v>44705</v>
+        <v>44053</v>
       </c>
       <c r="B154">
-        <v>64.02</v>
+        <v>47.72</v>
       </c>
       <c r="I154" s="1"/>
     </row>
     <row r="155" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
-        <v>44704</v>
+        <v>44054</v>
       </c>
       <c r="B155">
-        <v>62.86</v>
+        <v>47.93</v>
       </c>
       <c r="I155" s="1"/>
     </row>
     <row r="156" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
-        <v>44701</v>
+        <v>44055</v>
       </c>
       <c r="B156">
-        <v>60.98</v>
+        <v>48.43</v>
       </c>
       <c r="I156" s="1"/>
     </row>
     <row r="157" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
-        <v>44700</v>
+        <v>44056</v>
       </c>
       <c r="B157">
-        <v>60</v>
+        <v>48.38</v>
       </c>
       <c r="I157" s="1"/>
     </row>
     <row r="158" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
-        <v>44699</v>
+        <v>44057</v>
       </c>
       <c r="B158">
-        <v>61.2</v>
+        <v>48.45</v>
       </c>
       <c r="I158" s="1"/>
     </row>
     <row r="159" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
-        <v>44698</v>
+        <v>44060</v>
       </c>
       <c r="B159">
-        <v>65.78</v>
+        <v>48.21</v>
       </c>
       <c r="I159" s="1"/>
     </row>
     <row r="160" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
-        <v>44697</v>
+        <v>44061</v>
       </c>
       <c r="B160">
-        <v>65.959999999999994</v>
+        <v>48.42</v>
       </c>
       <c r="I160" s="1"/>
     </row>
     <row r="161" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A161" s="1">
-        <v>44694</v>
+        <v>44062</v>
       </c>
       <c r="B161">
-        <v>65.72</v>
+        <v>47.37</v>
       </c>
       <c r="I161" s="1"/>
     </row>
     <row r="162" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A162" s="1">
-        <v>44693</v>
+        <v>44063</v>
       </c>
       <c r="B162">
-        <v>64.510000000000005</v>
+        <v>47.35</v>
       </c>
       <c r="I162" s="1"/>
     </row>
     <row r="163" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A163" s="1">
-        <v>44692</v>
+        <v>44064</v>
       </c>
       <c r="B163">
-        <v>64.31</v>
+        <v>47.28</v>
       </c>
       <c r="I163" s="1"/>
     </row>
     <row r="164" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A164" s="1">
-        <v>44691</v>
+        <v>44067</v>
       </c>
       <c r="B164">
-        <v>64.010000000000005</v>
+        <v>47.97</v>
       </c>
       <c r="I164" s="1"/>
     </row>
     <row r="165" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A165" s="1">
-        <v>44690</v>
+        <v>44068</v>
       </c>
       <c r="B165">
-        <v>64.61</v>
+        <v>47.91</v>
       </c>
       <c r="I165" s="1"/>
     </row>
     <row r="166" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A166" s="1">
-        <v>44687</v>
+        <v>44069</v>
       </c>
       <c r="B166">
-        <v>64.739999999999995</v>
+        <v>48.16</v>
       </c>
       <c r="I166" s="1"/>
     </row>
     <row r="167" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A167" s="1">
-        <v>44686</v>
+        <v>44070</v>
       </c>
       <c r="B167">
-        <v>64.510000000000005</v>
+        <v>48.23</v>
       </c>
       <c r="I167" s="1"/>
     </row>
     <row r="168" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A168" s="1">
-        <v>44685</v>
+        <v>44071</v>
       </c>
       <c r="B168">
-        <v>65.03</v>
+        <v>49.83</v>
       </c>
       <c r="I168" s="1"/>
     </row>
     <row r="169" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A169" s="1">
-        <v>44684</v>
+        <v>44074</v>
       </c>
       <c r="B169">
-        <v>63.08</v>
+        <v>49.53</v>
       </c>
       <c r="I169" s="1"/>
     </row>
     <row r="170" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A170" s="1">
-        <v>44683</v>
+        <v>44075</v>
       </c>
       <c r="B170">
-        <v>63.44</v>
+        <v>49.12</v>
       </c>
       <c r="I170" s="1"/>
     </row>
     <row r="171" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A171" s="1">
-        <v>44680</v>
+        <v>44076</v>
       </c>
       <c r="B171">
-        <v>64.61</v>
+        <v>51.19</v>
       </c>
       <c r="I171" s="1"/>
     </row>
     <row r="172" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A172" s="1">
-        <v>44679</v>
+        <v>44077</v>
       </c>
       <c r="B172">
-        <v>66.19</v>
+        <v>50.48</v>
       </c>
       <c r="I172" s="1"/>
     </row>
     <row r="173" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A173" s="1">
-        <v>44678</v>
+        <v>44078</v>
       </c>
       <c r="B173">
-        <v>65.56</v>
+        <v>51.04</v>
       </c>
       <c r="I173" s="1"/>
     </row>
     <row r="174" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A174" s="1">
-        <v>44677</v>
+        <v>44082</v>
       </c>
       <c r="B174">
-        <v>65.05</v>
+        <v>49.81</v>
       </c>
       <c r="I174" s="1"/>
     </row>
     <row r="175" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A175" s="1">
-        <v>44676</v>
+        <v>44083</v>
       </c>
       <c r="B175">
-        <v>65.94</v>
+        <v>50.19</v>
       </c>
       <c r="I175" s="1"/>
     </row>
     <row r="176" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A176" s="1">
-        <v>44673</v>
+        <v>44084</v>
       </c>
       <c r="B176">
-        <v>65.25</v>
+        <v>50</v>
       </c>
       <c r="I176" s="1"/>
     </row>
     <row r="177" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A177" s="1">
-        <v>44672</v>
+        <v>44085</v>
       </c>
       <c r="B177">
-        <v>66.209999999999994</v>
+        <v>51.06</v>
       </c>
       <c r="I177" s="1"/>
     </row>
     <row r="178" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A178" s="1">
-        <v>44671</v>
+        <v>44088</v>
       </c>
       <c r="B178">
-        <v>65.959999999999994</v>
+        <v>50.71</v>
       </c>
       <c r="I178" s="1"/>
     </row>
     <row r="179" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A179" s="1">
-        <v>44670</v>
+        <v>44089</v>
       </c>
       <c r="B179">
-        <v>65.069999999999993</v>
+        <v>51.05</v>
       </c>
       <c r="I179" s="1"/>
     </row>
     <row r="180" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A180" s="1">
-        <v>44669</v>
+        <v>44090</v>
       </c>
       <c r="B180">
-        <v>64.44</v>
+        <v>50.79</v>
       </c>
       <c r="I180" s="1"/>
     </row>
     <row r="181" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A181" s="1">
-        <v>44665</v>
+        <v>44091</v>
       </c>
       <c r="B181">
-        <v>65.02</v>
+        <v>50.55</v>
       </c>
       <c r="I181" s="1"/>
     </row>
     <row r="182" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A182" s="1">
-        <v>44664</v>
+        <v>44092</v>
       </c>
       <c r="B182">
-        <v>64.73</v>
+        <v>50.45</v>
       </c>
       <c r="I182" s="1"/>
     </row>
     <row r="183" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A183" s="1">
-        <v>44663</v>
+        <v>44095</v>
       </c>
       <c r="B183">
-        <v>64.56</v>
+        <v>49.09</v>
       </c>
       <c r="I183" s="1"/>
     </row>
     <row r="184" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A184" s="1">
-        <v>44662</v>
+        <v>44096</v>
       </c>
       <c r="B184">
-        <v>63.81</v>
+        <v>49.66</v>
       </c>
       <c r="I184" s="1"/>
     </row>
     <row r="185" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A185" s="1">
-        <v>44659</v>
+        <v>44097</v>
       </c>
       <c r="B185">
-        <v>63.83</v>
+        <v>48.21</v>
       </c>
       <c r="I185" s="1"/>
     </row>
     <row r="186" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A186" s="1">
-        <v>44658</v>
+        <v>44098</v>
       </c>
       <c r="B186">
-        <v>63.44</v>
+        <v>48.7</v>
       </c>
       <c r="I186" s="1"/>
     </row>
     <row r="187" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A187" s="1">
-        <v>44657</v>
+        <v>44099</v>
       </c>
       <c r="B187">
-        <v>63.1</v>
+        <v>48.72</v>
       </c>
       <c r="I187" s="1"/>
     </row>
     <row r="188" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A188" s="1">
-        <v>44656</v>
+        <v>44102</v>
       </c>
       <c r="B188">
-        <v>62.47</v>
+        <v>49.28</v>
       </c>
       <c r="I188" s="1"/>
     </row>
     <row r="189" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A189" s="1">
-        <v>44655</v>
+        <v>44103</v>
       </c>
       <c r="B189">
-        <v>62.54</v>
+        <v>48.92</v>
       </c>
       <c r="I189" s="1"/>
     </row>
     <row r="190" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A190" s="1">
-        <v>44652</v>
+        <v>44104</v>
       </c>
       <c r="B190">
-        <v>62.87</v>
+        <v>49.37</v>
       </c>
       <c r="I190" s="1"/>
     </row>
     <row r="191" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A191" s="1">
-        <v>44651</v>
+        <v>44105</v>
       </c>
       <c r="B191">
-        <v>62</v>
+        <v>49.18</v>
       </c>
       <c r="I191" s="1"/>
     </row>
     <row r="192" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A192" s="1">
-        <v>44650</v>
+        <v>44106</v>
       </c>
       <c r="B192">
-        <v>62.21</v>
+        <v>49.36</v>
       </c>
       <c r="I192" s="1"/>
     </row>
     <row r="193" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A193" s="1">
-        <v>44649</v>
+        <v>44109</v>
       </c>
       <c r="B193">
-        <v>62.16</v>
+        <v>49.38</v>
       </c>
       <c r="I193" s="1"/>
     </row>
     <row r="194" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A194" s="1">
-        <v>44648</v>
+        <v>44110</v>
       </c>
       <c r="B194">
-        <v>61.92</v>
+        <v>48.94</v>
       </c>
       <c r="I194" s="1"/>
     </row>
     <row r="195" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A195" s="1">
-        <v>44645</v>
+        <v>44111</v>
       </c>
       <c r="B195">
-        <v>61.53</v>
+        <v>49.56</v>
       </c>
       <c r="I195" s="1"/>
     </row>
     <row r="196" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A196" s="1">
-        <v>44644</v>
+        <v>44112</v>
       </c>
       <c r="B196">
-        <v>60.98</v>
+        <v>50.46</v>
       </c>
       <c r="I196" s="1"/>
     </row>
     <row r="197" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A197" s="1">
-        <v>44643</v>
+        <v>44113</v>
       </c>
       <c r="B197">
-        <v>60.4</v>
+        <v>50.81</v>
       </c>
       <c r="I197" s="1"/>
     </row>
     <row r="198" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A198" s="1">
-        <v>44642</v>
+        <v>44116</v>
       </c>
       <c r="B198">
-        <v>60.8</v>
+        <v>51.09</v>
       </c>
       <c r="I198" s="1"/>
     </row>
     <row r="199" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A199" s="1">
-        <v>44641</v>
+        <v>44117</v>
       </c>
       <c r="B199">
-        <v>60.58</v>
+        <v>50.22</v>
       </c>
       <c r="I199" s="1"/>
     </row>
     <row r="200" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A200" s="1">
-        <v>44638</v>
+        <v>44118</v>
       </c>
       <c r="B200">
-        <v>60.1</v>
+        <v>50.12</v>
       </c>
       <c r="I200" s="1"/>
     </row>
     <row r="201" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A201" s="1">
-        <v>44637</v>
+        <v>44119</v>
       </c>
       <c r="B201">
-        <v>60.09</v>
+        <v>49.99</v>
       </c>
       <c r="I201" s="1"/>
     </row>
     <row r="202" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A202" s="1">
-        <v>44636</v>
+        <v>44120</v>
       </c>
       <c r="B202">
-        <v>59.46</v>
+        <v>50.03</v>
       </c>
       <c r="I202" s="1"/>
     </row>
     <row r="203" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A203" s="1">
-        <v>44635</v>
+        <v>44123</v>
       </c>
       <c r="B203">
-        <v>59.62</v>
+        <v>49.62</v>
       </c>
       <c r="I203" s="1"/>
     </row>
     <row r="204" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A204" s="1">
-        <v>44634</v>
+        <v>44124</v>
       </c>
       <c r="B204">
-        <v>58.54</v>
+        <v>50.25</v>
       </c>
       <c r="I204" s="1"/>
     </row>
     <row r="205" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A205" s="1">
-        <v>44631</v>
+        <v>44125</v>
       </c>
       <c r="B205">
-        <v>57.92</v>
+        <v>49.99</v>
       </c>
       <c r="I205" s="1"/>
     </row>
     <row r="206" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A206" s="1">
-        <v>44630</v>
+        <v>44126</v>
       </c>
       <c r="B206">
-        <v>57.88</v>
+        <v>50.68</v>
       </c>
       <c r="I206" s="1"/>
     </row>
     <row r="207" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A207" s="1">
-        <v>44629</v>
+        <v>44127</v>
       </c>
       <c r="B207">
-        <v>58.96</v>
+        <v>50.52</v>
       </c>
       <c r="I207" s="1"/>
     </row>
     <row r="208" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A208" s="1">
-        <v>44628</v>
+        <v>44130</v>
       </c>
       <c r="B208">
-        <v>58.66</v>
+        <v>49.8</v>
       </c>
       <c r="I208" s="1"/>
     </row>
     <row r="209" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A209" s="1">
-        <v>44627</v>
+        <v>44131</v>
       </c>
       <c r="B209">
-        <v>61.08</v>
+        <v>49.9</v>
       </c>
       <c r="I209" s="1"/>
     </row>
     <row r="210" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A210" s="1">
-        <v>44624</v>
+        <v>44132</v>
       </c>
       <c r="B210">
-        <v>62.57</v>
+        <v>47.96</v>
       </c>
       <c r="I210" s="1"/>
     </row>
     <row r="211" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A211" s="1">
-        <v>44623</v>
+        <v>44133</v>
       </c>
       <c r="B211">
-        <v>62.47</v>
+        <v>48.02</v>
       </c>
       <c r="I211" s="1"/>
     </row>
     <row r="212" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A212" s="1">
-        <v>44622</v>
+        <v>44134</v>
       </c>
       <c r="B212">
-        <v>62.43</v>
+        <v>48.06</v>
       </c>
       <c r="I212" s="1"/>
     </row>
     <row r="213" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A213" s="1">
-        <v>44621</v>
+        <v>44137</v>
       </c>
       <c r="B213">
-        <v>61.97</v>
+        <v>48.62</v>
       </c>
       <c r="I213" s="1"/>
     </row>
     <row r="214" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A214" s="1">
-        <v>44620</v>
+        <v>44138</v>
       </c>
       <c r="B214">
-        <v>62.24</v>
+        <v>49.35</v>
       </c>
       <c r="I214" s="1"/>
     </row>
     <row r="215" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A215" s="1">
-        <v>44617</v>
+        <v>44139</v>
       </c>
       <c r="B215">
-        <v>62.85</v>
+        <v>49.17</v>
       </c>
       <c r="I215" s="1"/>
     </row>
     <row r="216" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A216" s="1">
-        <v>44616</v>
+        <v>44140</v>
       </c>
       <c r="B216">
-        <v>60.51</v>
+        <v>49.44</v>
       </c>
       <c r="I216" s="1"/>
     </row>
     <row r="217" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A217" s="1">
-        <v>44615</v>
+        <v>44141</v>
       </c>
       <c r="B217">
-        <v>61.59</v>
+        <v>49.45</v>
       </c>
       <c r="I217" s="1"/>
     </row>
     <row r="218" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A218" s="1">
-        <v>44614</v>
+        <v>44144</v>
       </c>
       <c r="B218">
-        <v>62.28</v>
+        <v>52.57</v>
       </c>
       <c r="I218" s="1"/>
     </row>
     <row r="219" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A219" s="1">
-        <v>44610</v>
+        <v>44145</v>
       </c>
       <c r="B219">
-        <v>62.54</v>
+        <v>53.98</v>
       </c>
       <c r="I219" s="1"/>
     </row>
     <row r="220" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A220" s="1">
-        <v>44609</v>
+        <v>44146</v>
       </c>
       <c r="B220">
-        <v>62.12</v>
+        <v>53.58</v>
       </c>
       <c r="I220" s="1"/>
     </row>
     <row r="221" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A221" s="1">
-        <v>44608</v>
+        <v>44147</v>
       </c>
       <c r="B221">
-        <v>60.9</v>
+        <v>53.01</v>
       </c>
       <c r="I221" s="1"/>
     </row>
     <row r="222" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A222" s="1">
-        <v>44607</v>
+        <v>44148</v>
       </c>
       <c r="B222">
-        <v>60.91</v>
+        <v>53.45</v>
       </c>
       <c r="I222" s="1"/>
     </row>
     <row r="223" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A223" s="1">
-        <v>44606</v>
+        <v>44151</v>
       </c>
       <c r="B223">
-        <v>60.68</v>
+        <v>53.85</v>
       </c>
       <c r="I223" s="1"/>
     </row>
     <row r="224" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A224" s="1">
-        <v>44603</v>
+        <v>44152</v>
       </c>
       <c r="B224">
-        <v>60.29</v>
+        <v>53.68</v>
       </c>
       <c r="I224" s="1"/>
     </row>
     <row r="225" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A225" s="1">
-        <v>44602</v>
+        <v>44153</v>
       </c>
       <c r="B225">
-        <v>61.38</v>
+        <v>52.61</v>
       </c>
       <c r="I225" s="1"/>
     </row>
     <row r="226" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A226" s="1">
-        <v>44601</v>
+        <v>44154</v>
       </c>
       <c r="B226">
-        <v>61.04</v>
+        <v>53.13</v>
       </c>
       <c r="I226" s="1"/>
     </row>
     <row r="227" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A227" s="1">
-        <v>44600</v>
+        <v>44155</v>
       </c>
       <c r="B227">
-        <v>62</v>
+        <v>52.67</v>
       </c>
       <c r="I227" s="1"/>
     </row>
     <row r="228" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A228" s="1">
-        <v>44599</v>
+        <v>44158</v>
       </c>
       <c r="B228">
-        <v>61.6</v>
+        <v>52.68</v>
       </c>
       <c r="I228" s="1"/>
     </row>
     <row r="229" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A229" s="1">
-        <v>44596</v>
+        <v>44159</v>
       </c>
       <c r="B229">
-        <v>60.96</v>
+        <v>53.22</v>
       </c>
       <c r="I229" s="1"/>
     </row>
     <row r="230" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A230" s="1">
-        <v>44595</v>
+        <v>44160</v>
       </c>
       <c r="B230">
-        <v>61.61</v>
+        <v>52.93</v>
       </c>
       <c r="I230" s="1"/>
     </row>
     <row r="231" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A231" s="1">
-        <v>44594</v>
+        <v>44162</v>
       </c>
       <c r="B231">
-        <v>61.18</v>
+        <v>52.7</v>
       </c>
       <c r="I231" s="1"/>
     </row>
     <row r="232" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A232" s="1">
-        <v>44593</v>
+        <v>44165</v>
       </c>
       <c r="B232">
-        <v>60.56</v>
+        <v>51.6</v>
       </c>
       <c r="I232" s="1"/>
     </row>
     <row r="233" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A233" s="1">
-        <v>44592</v>
+        <v>44166</v>
       </c>
       <c r="B233">
-        <v>61.01</v>
+        <v>52.04</v>
       </c>
       <c r="I233" s="1"/>
     </row>
     <row r="234" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A234" s="1">
-        <v>44589</v>
+        <v>44167</v>
       </c>
       <c r="B234">
-        <v>60.84</v>
+        <v>52.11</v>
       </c>
       <c r="I234" s="1"/>
     </row>
     <row r="235" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A235" s="1">
-        <v>44588</v>
+        <v>44168</v>
       </c>
       <c r="B235">
-        <v>59.65</v>
+        <v>52.78</v>
       </c>
       <c r="I235" s="1"/>
     </row>
     <row r="236" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A236" s="1">
-        <v>44587</v>
+        <v>44169</v>
       </c>
       <c r="B236">
-        <v>59.6</v>
+        <v>53.85</v>
       </c>
       <c r="I236" s="1"/>
     </row>
     <row r="237" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A237" s="1">
-        <v>44586</v>
+        <v>44172</v>
       </c>
       <c r="B237">
-        <v>59.82</v>
+        <v>52.99</v>
       </c>
       <c r="I237" s="1"/>
     </row>
     <row r="238" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A238" s="1">
-        <v>44585</v>
+        <v>44173</v>
       </c>
       <c r="B238">
-        <v>59.96</v>
+        <v>53.18</v>
       </c>
       <c r="I238" s="1"/>
     </row>
     <row r="239" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A239" s="1">
-        <v>44582</v>
+        <v>44174</v>
       </c>
       <c r="B239">
-        <v>60.45</v>
+        <v>53.33</v>
       </c>
       <c r="I239" s="1"/>
     </row>
     <row r="240" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A240" s="1">
-        <v>44581</v>
+        <v>44175</v>
       </c>
       <c r="B240">
-        <v>60.75</v>
+        <v>53.05</v>
       </c>
       <c r="I240" s="1"/>
     </row>
     <row r="241" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A241" s="1">
-        <v>44580</v>
+        <v>44176</v>
       </c>
       <c r="B241">
-        <v>61</v>
+        <v>53.35</v>
       </c>
       <c r="I241" s="1"/>
     </row>
     <row r="242" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A242" s="1">
-        <v>44579</v>
+        <v>44179</v>
       </c>
       <c r="B242">
-        <v>60.9</v>
+        <v>53.27</v>
       </c>
       <c r="I242" s="1"/>
     </row>
     <row r="243" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A243" s="1">
-        <v>44575</v>
+        <v>44180</v>
       </c>
       <c r="B243">
-        <v>61.39</v>
+        <v>53.84</v>
       </c>
       <c r="I243" s="1"/>
     </row>
     <row r="244" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A244" s="1">
-        <v>44574</v>
+        <v>44181</v>
       </c>
       <c r="B244">
-        <v>60.9</v>
+        <v>53.06</v>
       </c>
       <c r="I244" s="1"/>
     </row>
     <row r="245" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A245" s="1">
-        <v>44573</v>
+        <v>44182</v>
       </c>
       <c r="B245">
-        <v>60.54</v>
+        <v>53.27</v>
       </c>
       <c r="I245" s="1"/>
     </row>
     <row r="246" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A246" s="1">
-        <v>44572</v>
+        <v>44183</v>
       </c>
       <c r="B246">
-        <v>60.45</v>
+        <v>53.74</v>
       </c>
       <c r="I246" s="1"/>
     </row>
     <row r="247" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A247" s="1">
-        <v>44571</v>
+        <v>44186</v>
       </c>
       <c r="B247">
-        <v>60.43</v>
+        <v>52.81</v>
       </c>
       <c r="I247" s="1"/>
     </row>
     <row r="248" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A248" s="1">
-        <v>44568</v>
+        <v>44187</v>
       </c>
       <c r="B248">
-        <v>60.33</v>
+        <v>52.76</v>
       </c>
       <c r="I248" s="1"/>
     </row>
     <row r="249" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A249" s="1">
-        <v>44567</v>
+        <v>44188</v>
       </c>
       <c r="B249">
-        <v>60.47</v>
+        <v>53.08</v>
       </c>
       <c r="I249" s="1"/>
     </row>
     <row r="250" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A250" s="1">
-        <v>44566</v>
+        <v>44189</v>
       </c>
       <c r="B250">
-        <v>60.79</v>
+        <v>53.44</v>
       </c>
       <c r="I250" s="1"/>
     </row>
     <row r="251" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A251" s="1">
-        <v>44565</v>
+        <v>44193</v>
       </c>
       <c r="B251">
-        <v>60.29</v>
+        <v>54.16</v>
       </c>
       <c r="I251" s="1"/>
     </row>
     <row r="252" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A252" s="1">
-        <v>44564</v>
+        <v>44194</v>
       </c>
       <c r="B252">
-        <v>59.3</v>
+        <v>54.13</v>
       </c>
     </row>
     <row r="253" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A253" s="1">
-        <v>44561</v>
+        <v>44195</v>
       </c>
       <c r="B253">
-        <v>59.21</v>
+        <v>54.44</v>
       </c>
     </row>
     <row r="254" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A254" s="1">
-        <v>44560</v>
+        <v>44196</v>
       </c>
       <c r="B254">
-        <v>58.78</v>
+        <v>54.84</v>
       </c>
     </row>
     <row r="255" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A255" s="1">
-        <v>44559</v>
+        <v>44200</v>
       </c>
       <c r="B255">
-        <v>58.95</v>
+        <v>52.76</v>
       </c>
     </row>
     <row r="256" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A256" s="1">
-        <v>44558</v>
+        <v>44201</v>
       </c>
       <c r="B256">
-        <v>58.88</v>
+        <v>52.18</v>
       </c>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A257" s="1">
-        <v>44557</v>
+        <v>44202</v>
       </c>
       <c r="B257">
-        <v>58.65</v>
+        <v>50.52</v>
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A258" s="1">
-        <v>44553</v>
+        <v>44203</v>
       </c>
       <c r="B258">
-        <v>58.22</v>
+        <v>49.96</v>
       </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A259" s="1">
-        <v>44552</v>
+        <v>44204</v>
       </c>
       <c r="B259">
-        <v>58.18</v>
+        <v>51.08</v>
       </c>
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A260" s="1">
-        <v>44551</v>
+        <v>44207</v>
       </c>
       <c r="B260">
-        <v>57.77</v>
+        <v>50.2</v>
       </c>
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A261" s="1">
-        <v>44550</v>
+        <v>44208</v>
       </c>
       <c r="B261">
-        <v>57.54</v>
+        <v>50.11</v>
       </c>
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A262" s="1">
-        <v>44547</v>
+        <v>44209</v>
       </c>
       <c r="B262">
-        <v>57.73</v>
+        <v>50.16</v>
       </c>
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A263" s="1">
-        <v>44546</v>
+        <v>44210</v>
       </c>
       <c r="B263">
-        <v>58.65</v>
+        <v>49.23</v>
       </c>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A264" s="1">
-        <v>44545</v>
+        <v>44211</v>
       </c>
       <c r="B264">
-        <v>58.06</v>
+        <v>48.7</v>
       </c>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A265" s="1">
-        <v>44544</v>
+        <v>44215</v>
       </c>
       <c r="B265">
-        <v>57.8</v>
+        <v>48.51</v>
       </c>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A266" s="1">
-        <v>44543</v>
+        <v>44216</v>
       </c>
       <c r="B266">
-        <v>57.76</v>
+        <v>48.68</v>
       </c>
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A267" s="1">
-        <v>44540</v>
+        <v>44217</v>
       </c>
       <c r="B267">
-        <v>56.28</v>
+        <v>48.95</v>
       </c>
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A268" s="1">
-        <v>44539</v>
+        <v>44218</v>
       </c>
       <c r="B268">
-        <v>54.86</v>
+        <v>48.49</v>
       </c>
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A269" s="1">
-        <v>44538</v>
+        <v>44221</v>
       </c>
       <c r="B269">
-        <v>55</v>
+        <v>48.78</v>
       </c>
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A270" s="1">
-        <v>44537</v>
+        <v>44222</v>
       </c>
       <c r="B270">
-        <v>55.21</v>
+        <v>49.29</v>
       </c>
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A271" s="1">
-        <v>44536</v>
+        <v>44223</v>
       </c>
       <c r="B271">
-        <v>54.91</v>
+        <v>48.53</v>
       </c>
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A272" s="1">
-        <v>44533</v>
+        <v>44224</v>
       </c>
       <c r="B272">
-        <v>53.54</v>
+        <v>49.15</v>
       </c>
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A273" s="1">
-        <v>44532</v>
+        <v>44225</v>
       </c>
       <c r="B273">
-        <v>53.07</v>
+        <v>48.15</v>
       </c>
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A274" s="1">
-        <v>44531</v>
+        <v>44228</v>
       </c>
       <c r="B274">
-        <v>52.3</v>
+        <v>48.48</v>
       </c>
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A275" s="1">
-        <v>44530</v>
+        <v>44229</v>
       </c>
       <c r="B275">
-        <v>52.45</v>
+        <v>48.96</v>
       </c>
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A276" s="1">
-        <v>44529</v>
+        <v>44230</v>
       </c>
       <c r="B276">
-        <v>54.58</v>
+        <v>48.77</v>
       </c>
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A277" s="1">
-        <v>44526</v>
+        <v>44231</v>
       </c>
       <c r="B277">
-        <v>53.73</v>
+        <v>49.01</v>
       </c>
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A278" s="1">
-        <v>44524</v>
+        <v>44232</v>
       </c>
       <c r="B278">
-        <v>55.43</v>
+        <v>49.65</v>
       </c>
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A279" s="1">
-        <v>44523</v>
+        <v>44235</v>
       </c>
       <c r="B279">
-        <v>55.88</v>
+        <v>49.92</v>
       </c>
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A280" s="1">
-        <v>44522</v>
+        <v>44236</v>
       </c>
       <c r="B280">
-        <v>55.47</v>
+        <v>49.7</v>
       </c>
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A281" s="1">
-        <v>44519</v>
+        <v>44237</v>
       </c>
       <c r="B281">
-        <v>55.13</v>
+        <v>49.6</v>
       </c>
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A282" s="1">
-        <v>44518</v>
+        <v>44238</v>
       </c>
       <c r="B282">
-        <v>55.41</v>
+        <v>50.3</v>
       </c>
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A283" s="1">
-        <v>44517</v>
+        <v>44239</v>
       </c>
       <c r="B283">
-        <v>55.91</v>
+        <v>50.69</v>
       </c>
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A284" s="1">
-        <v>44516</v>
+        <v>44243</v>
       </c>
       <c r="B284">
-        <v>56.22</v>
+        <v>50.27</v>
       </c>
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A285" s="1">
-        <v>44515</v>
+        <v>44244</v>
       </c>
       <c r="B285">
-        <v>56.62</v>
+        <v>50.13</v>
       </c>
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A286" s="1">
-        <v>44512</v>
+        <v>44245</v>
       </c>
       <c r="B286">
-        <v>56.61</v>
+        <v>50.77</v>
       </c>
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A287" s="1">
-        <v>44511</v>
+        <v>44246</v>
       </c>
       <c r="B287">
-        <v>56.74</v>
+        <v>50.11</v>
       </c>
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A288" s="1">
-        <v>44510</v>
+        <v>44249</v>
       </c>
       <c r="B288">
-        <v>56.72</v>
+        <v>50.63</v>
       </c>
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A289" s="1">
-        <v>44509</v>
+        <v>44250</v>
       </c>
       <c r="B289">
-        <v>56.49</v>
+        <v>50.54</v>
       </c>
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A290" s="1">
-        <v>44508</v>
+        <v>44251</v>
       </c>
       <c r="B290">
-        <v>56.33</v>
+        <v>50.71</v>
       </c>
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A291" s="1">
-        <v>44505</v>
+        <v>44252</v>
       </c>
       <c r="B291">
-        <v>56.84</v>
+        <v>50.17</v>
       </c>
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A292" s="1">
-        <v>44504</v>
+        <v>44253</v>
       </c>
       <c r="B292">
-        <v>56.6</v>
+        <v>48.99</v>
       </c>
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A293" s="1">
-        <v>44503</v>
+        <v>44256</v>
       </c>
       <c r="B293">
-        <v>56.29</v>
+        <v>49.9</v>
       </c>
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A294" s="1">
-        <v>44502</v>
+        <v>44257</v>
       </c>
       <c r="B294">
-        <v>56.1</v>
+        <v>50.1</v>
       </c>
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A295" s="1">
-        <v>44501</v>
+        <v>44258</v>
       </c>
       <c r="B295">
-        <v>56.17</v>
+        <v>49.98</v>
       </c>
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A296" s="1">
-        <v>44498</v>
+        <v>44259</v>
       </c>
       <c r="B296">
-        <v>56.37</v>
+        <v>49.94</v>
       </c>
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A297" s="1">
-        <v>44497</v>
+        <v>44260</v>
       </c>
       <c r="B297">
-        <v>56.04</v>
+        <v>50.79</v>
       </c>
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A298" s="1">
-        <v>44496</v>
+        <v>44263</v>
       </c>
       <c r="B298">
-        <v>55.52</v>
+        <v>51.64</v>
       </c>
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A299" s="1">
-        <v>44495</v>
+        <v>44264</v>
       </c>
       <c r="B299">
-        <v>54.47</v>
+        <v>50.86</v>
       </c>
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A300" s="1">
-        <v>44494</v>
+        <v>44265</v>
       </c>
       <c r="B300">
-        <v>54.23</v>
+        <v>51.44</v>
       </c>
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A301" s="1">
-        <v>44491</v>
+        <v>44266</v>
       </c>
       <c r="B301">
-        <v>54.45</v>
+        <v>50.88</v>
       </c>
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A302" s="1">
-        <v>44490</v>
+        <v>44267</v>
       </c>
       <c r="B302">
-        <v>54.35</v>
+        <v>50.36</v>
       </c>
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A303" s="1">
-        <v>44489</v>
+        <v>44270</v>
       </c>
       <c r="B303">
-        <v>54.63</v>
+        <v>51.03</v>
       </c>
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A304" s="1">
-        <v>44488</v>
+        <v>44271</v>
       </c>
       <c r="B304">
-        <v>54.15</v>
+        <v>51.22</v>
       </c>
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A305" s="1">
-        <v>44487</v>
+        <v>44272</v>
       </c>
       <c r="B305">
-        <v>53.94</v>
+        <v>51.24</v>
       </c>
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A306" s="1">
-        <v>44484</v>
+        <v>44273</v>
       </c>
       <c r="B306">
-        <v>54.48</v>
+        <v>50.57</v>
       </c>
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A307" s="1">
-        <v>44483</v>
+        <v>44274</v>
       </c>
       <c r="B307">
-        <v>54.61</v>
+        <v>50.81</v>
       </c>
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A308" s="1">
-        <v>44482</v>
+        <v>44277</v>
       </c>
       <c r="B308">
-        <v>54.24</v>
+        <v>51</v>
       </c>
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A309" s="1">
-        <v>44481</v>
+        <v>44278</v>
       </c>
       <c r="B309">
-        <v>54.23</v>
+        <v>51.39</v>
       </c>
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A310" s="1">
-        <v>44480</v>
+        <v>44279</v>
       </c>
       <c r="B310">
-        <v>54.23</v>
+        <v>51.52</v>
       </c>
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A311" s="1">
-        <v>44477</v>
+        <v>44280</v>
       </c>
       <c r="B311">
-        <v>54.12</v>
+        <v>52.02</v>
       </c>
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A312" s="1">
-        <v>44476</v>
+        <v>44281</v>
       </c>
       <c r="B312">
-        <v>53.88</v>
+        <v>53.04</v>
       </c>
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A313" s="1">
-        <v>44475</v>
+        <v>44284</v>
       </c>
       <c r="B313">
-        <v>53.71</v>
+        <v>53.85</v>
       </c>
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A314" s="1">
-        <v>44474</v>
+        <v>44285</v>
       </c>
       <c r="B314">
-        <v>53.08</v>
+        <v>53.15</v>
       </c>
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A315" s="1">
-        <v>44473</v>
+        <v>44286</v>
       </c>
       <c r="B315">
-        <v>52.99</v>
+        <v>52.71</v>
       </c>
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A316" s="1">
-        <v>44470</v>
+        <v>44287</v>
       </c>
       <c r="B316">
-        <v>53.02</v>
+        <v>52.51</v>
       </c>
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A317" s="1">
-        <v>44469</v>
+        <v>44291</v>
       </c>
       <c r="B317">
-        <v>52.47</v>
+        <v>52.81</v>
       </c>
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A318" s="1">
-        <v>44468</v>
+        <v>44292</v>
       </c>
       <c r="B318">
-        <v>52.96</v>
+        <v>53.19</v>
       </c>
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A319" s="1">
-        <v>44467</v>
+        <v>44293</v>
       </c>
       <c r="B319">
-        <v>52.64</v>
+        <v>53.28</v>
       </c>
     </row>
     <row r="320" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A320" s="1">
-        <v>44466</v>
+        <v>44294</v>
       </c>
       <c r="B320">
-        <v>53.61</v>
+        <v>53.12</v>
       </c>
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A321" s="1">
-        <v>44463</v>
+        <v>44295</v>
       </c>
       <c r="B321">
-        <v>53.89</v>
+        <v>53.18</v>
       </c>
     </row>
     <row r="322" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A322" s="1">
-        <v>44462</v>
+        <v>44298</v>
       </c>
       <c r="B322">
-        <v>54.04</v>
+        <v>53.35</v>
       </c>
     </row>
     <row r="323" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A323" s="1">
-        <v>44461</v>
+        <v>44299</v>
       </c>
       <c r="B323">
-        <v>54.13</v>
+        <v>53.09</v>
       </c>
     </row>
     <row r="324" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A324" s="1">
-        <v>44460</v>
+        <v>44300</v>
       </c>
       <c r="B324">
-        <v>54.05</v>
+        <v>53.08</v>
       </c>
     </row>
     <row r="325" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A325" s="1">
-        <v>44459</v>
+        <v>44301</v>
       </c>
       <c r="B325">
-        <v>54.06</v>
+        <v>53.33</v>
       </c>
     </row>
     <row r="326" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A326" s="1">
-        <v>44456</v>
+        <v>44302</v>
       </c>
       <c r="B326">
-        <v>54.44</v>
+        <v>53.68</v>
       </c>
     </row>
     <row r="327" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A327" s="1">
-        <v>44455</v>
+        <v>44305</v>
       </c>
       <c r="B327">
-        <v>55.35</v>
+        <v>54</v>
       </c>
     </row>
     <row r="328" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A328" s="1">
-        <v>44454</v>
+        <v>44306</v>
       </c>
       <c r="B328">
-        <v>55.88</v>
+        <v>54.17</v>
       </c>
     </row>
     <row r="329" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A329" s="1">
-        <v>44453</v>
+        <v>44307</v>
       </c>
       <c r="B329">
-        <v>55.69</v>
+        <v>54.61</v>
       </c>
     </row>
     <row r="330" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A330" s="1">
-        <v>44452</v>
+        <v>44308</v>
       </c>
       <c r="B330">
-        <v>56.07</v>
+        <v>54.44</v>
       </c>
     </row>
     <row r="331" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A331" s="1">
-        <v>44449</v>
+        <v>44309</v>
       </c>
       <c r="B331">
-        <v>55.61</v>
+        <v>54.47</v>
       </c>
     </row>
     <row r="332" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A332" s="1">
-        <v>44448</v>
+        <v>44312</v>
       </c>
       <c r="B332">
-        <v>55.86</v>
+        <v>53.66</v>
       </c>
     </row>
     <row r="333" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A333" s="1">
-        <v>44447</v>
+        <v>44313</v>
       </c>
       <c r="B333">
-        <v>56.42</v>
+        <v>53.58</v>
       </c>
     </row>
     <row r="334" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A334" s="1">
-        <v>44446</v>
+        <v>44314</v>
       </c>
       <c r="B334">
-        <v>55.67</v>
+        <v>53.59</v>
       </c>
     </row>
     <row r="335" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A335" s="1">
-        <v>44442</v>
+        <v>44315</v>
       </c>
       <c r="B335">
-        <v>56.73</v>
+        <v>54.26</v>
       </c>
     </row>
     <row r="336" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A336" s="1">
-        <v>44441</v>
+        <v>44316</v>
       </c>
       <c r="B336">
-        <v>56.77</v>
+        <v>53.98</v>
       </c>
     </row>
     <row r="337" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A337" s="1">
-        <v>44440</v>
+        <v>44319</v>
       </c>
       <c r="B337">
-        <v>56.69</v>
+        <v>54.48</v>
       </c>
     </row>
     <row r="338" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A338" s="1">
-        <v>44439</v>
+        <v>44320</v>
       </c>
       <c r="B338">
-        <v>56.31</v>
+        <v>54.14</v>
       </c>
     </row>
     <row r="339" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A339" s="1">
-        <v>44438</v>
+        <v>44321</v>
       </c>
       <c r="B339">
-        <v>56.18</v>
+        <v>54</v>
       </c>
     </row>
     <row r="340" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A340" s="1">
-        <v>44435</v>
+        <v>44322</v>
       </c>
       <c r="B340">
-        <v>55.65</v>
+        <v>54.54</v>
       </c>
     </row>
     <row r="341" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A341" s="1">
-        <v>44434</v>
+        <v>44323</v>
       </c>
       <c r="B341">
-        <v>55.54</v>
+        <v>54.51</v>
       </c>
     </row>
     <row r="342" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A342" s="1">
-        <v>44433</v>
+        <v>44326</v>
       </c>
       <c r="B342">
-        <v>56.07</v>
+        <v>54.91</v>
       </c>
     </row>
     <row r="343" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A343" s="1">
-        <v>44432</v>
+        <v>44327</v>
       </c>
       <c r="B343">
-        <v>56.01</v>
+        <v>54.32</v>
       </c>
     </row>
     <row r="344" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A344" s="1">
-        <v>44431</v>
+        <v>44328</v>
       </c>
       <c r="B344">
-        <v>56.44</v>
+        <v>54.04</v>
       </c>
     </row>
     <row r="345" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A345" s="1">
-        <v>44428</v>
+        <v>44329</v>
       </c>
       <c r="B345">
-        <v>56.64</v>
+        <v>54.51</v>
       </c>
     </row>
     <row r="346" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A346" s="1">
-        <v>44427</v>
+        <v>44330</v>
       </c>
       <c r="B346">
-        <v>56.86</v>
+        <v>54.73</v>
       </c>
     </row>
     <row r="347" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A347" s="1">
-        <v>44426</v>
+        <v>44333</v>
       </c>
       <c r="B347">
-        <v>56.5</v>
+        <v>54.64</v>
       </c>
     </row>
     <row r="348" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A348" s="1">
-        <v>44425</v>
+        <v>44334</v>
       </c>
       <c r="B348">
-        <v>57.28</v>
+        <v>54.34</v>
       </c>
     </row>
     <row r="349" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A349" s="1">
-        <v>44424</v>
+        <v>44335</v>
       </c>
       <c r="B349">
-        <v>57.48</v>
+        <v>54.17</v>
       </c>
     </row>
     <row r="350" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A350" s="1">
-        <v>44421</v>
+        <v>44336</v>
       </c>
       <c r="B350">
-        <v>57.23</v>
+        <v>54.65</v>
       </c>
     </row>
     <row r="351" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A351" s="1">
-        <v>44420</v>
+        <v>44337</v>
       </c>
       <c r="B351">
-        <v>56.84</v>
+        <v>54.62</v>
       </c>
     </row>
     <row r="352" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A352" s="1">
-        <v>44419</v>
+        <v>44340</v>
       </c>
       <c r="B352">
-        <v>56.73</v>
+        <v>54.8</v>
       </c>
     </row>
     <row r="353" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A353" s="1">
-        <v>44418</v>
+        <v>44341</v>
       </c>
       <c r="B353">
-        <v>56.8</v>
+        <v>54.79</v>
       </c>
     </row>
     <row r="354" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A354" s="1">
-        <v>44417</v>
+        <v>44342</v>
       </c>
       <c r="B354">
-        <v>56.65</v>
+        <v>55.03</v>
       </c>
     </row>
     <row r="355" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A355" s="1">
-        <v>44414</v>
+        <v>44343</v>
       </c>
       <c r="B355">
-        <v>56.64</v>
+        <v>55.49</v>
       </c>
     </row>
     <row r="356" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A356" s="1">
-        <v>44413</v>
+        <v>44344</v>
       </c>
       <c r="B356">
-        <v>56.5</v>
+        <v>55.29</v>
       </c>
     </row>
     <row r="357" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A357" s="1">
-        <v>44412</v>
+        <v>44348</v>
       </c>
       <c r="B357">
-        <v>56.1</v>
+        <v>55.28</v>
       </c>
     </row>
     <row r="358" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A358" s="1">
-        <v>44411</v>
+        <v>44349</v>
       </c>
       <c r="B358">
-        <v>56.92</v>
+        <v>55.5</v>
       </c>
     </row>
     <row r="359" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A359" s="1">
-        <v>44410</v>
+        <v>44350</v>
       </c>
       <c r="B359">
-        <v>56.88</v>
+        <v>55.64</v>
       </c>
     </row>
     <row r="360" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A360" s="1">
-        <v>44407</v>
+        <v>44351</v>
       </c>
       <c r="B360">
-        <v>57.03</v>
+        <v>56.24</v>
       </c>
     </row>
     <row r="361" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A361" s="1">
-        <v>44406</v>
+        <v>44354</v>
       </c>
       <c r="B361">
-        <v>57.05</v>
+        <v>56.04</v>
       </c>
     </row>
     <row r="362" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A362" s="1">
-        <v>44405</v>
+        <v>44355</v>
       </c>
       <c r="B362">
-        <v>56.74</v>
+        <v>55.65</v>
       </c>
     </row>
     <row r="363" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A363" s="1">
-        <v>44404</v>
+        <v>44356</v>
       </c>
       <c r="B363">
-        <v>57.26</v>
+        <v>55.48</v>
       </c>
     </row>
     <row r="364" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A364" s="1">
-        <v>44403</v>
+        <v>44357</v>
       </c>
       <c r="B364">
-        <v>57.06</v>
+        <v>55.91</v>
       </c>
     </row>
     <row r="365" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A365" s="1">
-        <v>44400</v>
+        <v>44358</v>
       </c>
       <c r="B365">
-        <v>57.01</v>
+        <v>56.16</v>
       </c>
     </row>
     <row r="366" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A366" s="1">
-        <v>44399</v>
+        <v>44361</v>
       </c>
       <c r="B366">
-        <v>56.47</v>
+        <v>55.55</v>
       </c>
     </row>
     <row r="367" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A367" s="1">
-        <v>44398</v>
+        <v>44362</v>
       </c>
       <c r="B367">
-        <v>56.55</v>
+        <v>55.41</v>
       </c>
     </row>
     <row r="368" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A368" s="1">
-        <v>44397</v>
+        <v>44363</v>
       </c>
       <c r="B368">
-        <v>55.83</v>
+        <v>54.67</v>
       </c>
     </row>
     <row r="369" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A369" s="1">
-        <v>44396</v>
+        <v>44364</v>
       </c>
       <c r="B369">
-        <v>55.73</v>
+        <v>54.95</v>
       </c>
     </row>
     <row r="370" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A370" s="1">
-        <v>44393</v>
+        <v>44365</v>
       </c>
       <c r="B370">
-        <v>56.4</v>
+        <v>53.77</v>
       </c>
     </row>
     <row r="371" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A371" s="1">
-        <v>44392</v>
+        <v>44368</v>
       </c>
       <c r="B371">
-        <v>56.44</v>
+        <v>54.36</v>
       </c>
     </row>
     <row r="372" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A372" s="1">
-        <v>44391</v>
+        <v>44369</v>
       </c>
       <c r="B372">
-        <v>56.26</v>
+        <v>54.56</v>
       </c>
     </row>
     <row r="373" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A373" s="1">
-        <v>44390</v>
+        <v>44370</v>
       </c>
       <c r="B373">
-        <v>55.02</v>
+        <v>54.12</v>
       </c>
     </row>
     <row r="374" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A374" s="1">
-        <v>44389</v>
+        <v>44371</v>
       </c>
       <c r="B374">
-        <v>54.48</v>
+        <v>54.39</v>
       </c>
     </row>
     <row r="375" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A375" s="1">
-        <v>44386</v>
+        <v>44372</v>
       </c>
       <c r="B375">
-        <v>54.46</v>
+        <v>54.32</v>
       </c>
     </row>
     <row r="376" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A376" s="1">
-        <v>44385</v>
+        <v>44375</v>
       </c>
       <c r="B376">
-        <v>54.13</v>
+        <v>54.26</v>
       </c>
     </row>
     <row r="377" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A377" s="1">
-        <v>44384</v>
+        <v>44376</v>
       </c>
       <c r="B377">
-        <v>54.32</v>
+        <v>53.86</v>
       </c>
     </row>
     <row r="378" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A378" s="1">
-        <v>44383</v>
+        <v>44377</v>
       </c>
       <c r="B378">
-        <v>53.88</v>
+        <v>54.11</v>
       </c>
     </row>
     <row r="379" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A379" s="1">
-        <v>44379</v>
+        <v>44378</v>
       </c>
       <c r="B379">
-        <v>54.18</v>
+        <v>53.96</v>
       </c>
     </row>
     <row r="380" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A380" s="1">
-        <v>44378</v>
+        <v>44379</v>
       </c>
       <c r="B380">
-        <v>53.96</v>
+        <v>54.18</v>
       </c>
     </row>
     <row r="381" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A381" s="1">
-        <v>44377</v>
+        <v>44383</v>
       </c>
       <c r="B381">
-        <v>54.11</v>
+        <v>53.88</v>
       </c>
     </row>
     <row r="382" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A382" s="1">
-        <v>44376</v>
+        <v>44384</v>
       </c>
       <c r="B382">
-        <v>53.86</v>
+        <v>54.32</v>
       </c>
     </row>
     <row r="383" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A383" s="1">
-        <v>44375</v>
+        <v>44385</v>
       </c>
       <c r="B383">
-        <v>54.26</v>
+        <v>54.13</v>
       </c>
     </row>
     <row r="384" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A384" s="1">
-        <v>44372</v>
+        <v>44386</v>
       </c>
       <c r="B384">
-        <v>54.32</v>
+        <v>54.46</v>
       </c>
     </row>
     <row r="385" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A385" s="1">
-        <v>44371</v>
+        <v>44389</v>
       </c>
       <c r="B385">
-        <v>54.39</v>
+        <v>54.48</v>
       </c>
     </row>
     <row r="386" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A386" s="1">
-        <v>44370</v>
+        <v>44390</v>
       </c>
       <c r="B386">
-        <v>54.12</v>
+        <v>55.02</v>
       </c>
     </row>
     <row r="387" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A387" s="1">
-        <v>44369</v>
+        <v>44391</v>
       </c>
       <c r="B387">
-        <v>54.56</v>
+        <v>56.26</v>
       </c>
     </row>
     <row r="388" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A388" s="1">
-        <v>44368</v>
+        <v>44392</v>
       </c>
       <c r="B388">
-        <v>54.36</v>
+        <v>56.44</v>
       </c>
     </row>
     <row r="389" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A389" s="1">
-        <v>44365</v>
+        <v>44393</v>
       </c>
       <c r="B389">
-        <v>53.77</v>
+        <v>56.4</v>
       </c>
     </row>
     <row r="390" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A390" s="1">
-        <v>44364</v>
+        <v>44396</v>
       </c>
       <c r="B390">
-        <v>54.95</v>
+        <v>55.73</v>
       </c>
     </row>
     <row r="391" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A391" s="1">
-        <v>44363</v>
+        <v>44397</v>
       </c>
       <c r="B391">
-        <v>54.67</v>
+        <v>55.83</v>
       </c>
     </row>
     <row r="392" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A392" s="1">
-        <v>44362</v>
+        <v>44398</v>
       </c>
       <c r="B392">
-        <v>55.41</v>
+        <v>56.55</v>
       </c>
     </row>
     <row r="393" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A393" s="1">
-        <v>44361</v>
+        <v>44399</v>
       </c>
       <c r="B393">
-        <v>55.55</v>
+        <v>56.47</v>
       </c>
     </row>
     <row r="394" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A394" s="1">
-        <v>44358</v>
+        <v>44400</v>
       </c>
       <c r="B394">
-        <v>56.16</v>
+        <v>57.01</v>
       </c>
     </row>
     <row r="395" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A395" s="1">
-        <v>44357</v>
+        <v>44403</v>
       </c>
       <c r="B395">
-        <v>55.91</v>
+        <v>57.06</v>
       </c>
     </row>
     <row r="396" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A396" s="1">
-        <v>44356</v>
+        <v>44404</v>
       </c>
       <c r="B396">
-        <v>55.48</v>
+        <v>57.26</v>
       </c>
     </row>
     <row r="397" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A397" s="1">
-        <v>44355</v>
+        <v>44405</v>
       </c>
       <c r="B397">
-        <v>55.65</v>
+        <v>56.74</v>
       </c>
     </row>
     <row r="398" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A398" s="1">
-        <v>44354</v>
+        <v>44406</v>
       </c>
       <c r="B398">
-        <v>56.04</v>
+        <v>57.05</v>
       </c>
     </row>
     <row r="399" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A399" s="1">
-        <v>44351</v>
+        <v>44407</v>
       </c>
       <c r="B399">
-        <v>56.24</v>
+        <v>57.03</v>
       </c>
     </row>
     <row r="400" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A400" s="1">
-        <v>44350</v>
+        <v>44410</v>
       </c>
       <c r="B400">
-        <v>55.64</v>
+        <v>56.88</v>
       </c>
     </row>
     <row r="401" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A401" s="1">
-        <v>44349</v>
+        <v>44411</v>
       </c>
       <c r="B401">
-        <v>55.5</v>
+        <v>56.92</v>
       </c>
     </row>
     <row r="402" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A402" s="1">
-        <v>44348</v>
+        <v>44412</v>
       </c>
       <c r="B402">
-        <v>55.28</v>
+        <v>56.1</v>
       </c>
     </row>
     <row r="403" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A403" s="1">
-        <v>44344</v>
+        <v>44413</v>
       </c>
       <c r="B403">
-        <v>55.29</v>
+        <v>56.5</v>
       </c>
     </row>
     <row r="404" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A404" s="1">
-        <v>44343</v>
+        <v>44414</v>
       </c>
       <c r="B404">
-        <v>55.49</v>
+        <v>56.64</v>
       </c>
     </row>
     <row r="405" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A405" s="1">
-        <v>44342</v>
+        <v>44417</v>
       </c>
       <c r="B405">
-        <v>55.03</v>
+        <v>56.65</v>
       </c>
     </row>
     <row r="406" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A406" s="1">
-        <v>44341</v>
+        <v>44418</v>
       </c>
       <c r="B406">
-        <v>54.79</v>
+        <v>56.8</v>
       </c>
     </row>
     <row r="407" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A407" s="1">
-        <v>44340</v>
+        <v>44419</v>
       </c>
       <c r="B407">
-        <v>54.8</v>
+        <v>56.73</v>
       </c>
     </row>
     <row r="408" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A408" s="1">
-        <v>44337</v>
+        <v>44420</v>
       </c>
       <c r="B408">
-        <v>54.62</v>
+        <v>56.84</v>
       </c>
     </row>
     <row r="409" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A409" s="1">
-        <v>44336</v>
+        <v>44421</v>
       </c>
       <c r="B409">
-        <v>54.65</v>
+        <v>57.23</v>
       </c>
     </row>
     <row r="410" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A410" s="1">
-        <v>44335</v>
+        <v>44424</v>
       </c>
       <c r="B410">
-        <v>54.17</v>
+        <v>57.48</v>
       </c>
     </row>
     <row r="411" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A411" s="1">
-        <v>44334</v>
+        <v>44425</v>
       </c>
       <c r="B411">
-        <v>54.34</v>
+        <v>57.28</v>
       </c>
     </row>
     <row r="412" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A412" s="1">
-        <v>44333</v>
+        <v>44426</v>
       </c>
       <c r="B412">
-        <v>54.64</v>
+        <v>56.5</v>
       </c>
     </row>
     <row r="413" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A413" s="1">
-        <v>44330</v>
+        <v>44427</v>
       </c>
       <c r="B413">
-        <v>54.73</v>
+        <v>56.86</v>
       </c>
     </row>
     <row r="414" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A414" s="1">
-        <v>44329</v>
+        <v>44428</v>
       </c>
       <c r="B414">
-        <v>54.51</v>
+        <v>56.64</v>
       </c>
     </row>
     <row r="415" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A415" s="1">
-        <v>44328</v>
+        <v>44431</v>
       </c>
       <c r="B415">
-        <v>54.04</v>
+        <v>56.44</v>
       </c>
     </row>
     <row r="416" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A416" s="1">
-        <v>44327</v>
+        <v>44432</v>
       </c>
       <c r="B416">
-        <v>54.32</v>
+        <v>56.01</v>
       </c>
     </row>
     <row r="417" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A417" s="1">
-        <v>44326</v>
+        <v>44433</v>
       </c>
       <c r="B417">
-        <v>54.91</v>
+        <v>56.07</v>
       </c>
     </row>
     <row r="418" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A418" s="1">
-        <v>44323</v>
+        <v>44434</v>
       </c>
       <c r="B418">
-        <v>54.51</v>
+        <v>55.54</v>
       </c>
     </row>
     <row r="419" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A419" s="1">
-        <v>44322</v>
+        <v>44435</v>
       </c>
       <c r="B419">
-        <v>54.54</v>
+        <v>55.65</v>
       </c>
     </row>
     <row r="420" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A420" s="1">
-        <v>44321</v>
+        <v>44438</v>
       </c>
       <c r="B420">
-        <v>54</v>
+        <v>56.18</v>
       </c>
     </row>
     <row r="421" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A421" s="1">
-        <v>44320</v>
+        <v>44439</v>
       </c>
       <c r="B421">
-        <v>54.14</v>
+        <v>56.31</v>
       </c>
     </row>
     <row r="422" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A422" s="1">
-        <v>44319</v>
+        <v>44440</v>
       </c>
       <c r="B422">
-        <v>54.48</v>
+        <v>56.69</v>
       </c>
     </row>
     <row r="423" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A423" s="1">
-        <v>44316</v>
+        <v>44441</v>
       </c>
       <c r="B423">
-        <v>53.98</v>
+        <v>56.77</v>
       </c>
     </row>
     <row r="424" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A424" s="1">
-        <v>44315</v>
+        <v>44442</v>
       </c>
       <c r="B424">
-        <v>54.26</v>
+        <v>56.73</v>
       </c>
     </row>
     <row r="425" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A425" s="1">
-        <v>44314</v>
+        <v>44446</v>
       </c>
       <c r="B425">
-        <v>53.59</v>
+        <v>55.67</v>
       </c>
     </row>
     <row r="426" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A426" s="1">
-        <v>44313</v>
+        <v>44447</v>
       </c>
       <c r="B426">
-        <v>53.58</v>
+        <v>56.42</v>
       </c>
     </row>
     <row r="427" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A427" s="1">
-        <v>44312</v>
+        <v>44448</v>
       </c>
       <c r="B427">
-        <v>53.66</v>
+        <v>55.86</v>
       </c>
     </row>
     <row r="428" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A428" s="1">
-        <v>44309</v>
+        <v>44449</v>
       </c>
       <c r="B428">
-        <v>54.47</v>
+        <v>55.61</v>
       </c>
     </row>
     <row r="429" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A429" s="1">
-        <v>44308</v>
+        <v>44452</v>
       </c>
       <c r="B429">
-        <v>54.44</v>
+        <v>56.07</v>
       </c>
     </row>
     <row r="430" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A430" s="1">
-        <v>44307</v>
+        <v>44453</v>
       </c>
       <c r="B430">
-        <v>54.61</v>
+        <v>55.69</v>
       </c>
     </row>
     <row r="431" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A431" s="1">
-        <v>44306</v>
+        <v>44454</v>
       </c>
       <c r="B431">
-        <v>54.17</v>
+        <v>55.88</v>
       </c>
     </row>
     <row r="432" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A432" s="1">
-        <v>44305</v>
+        <v>44455</v>
       </c>
       <c r="B432">
-        <v>54</v>
+        <v>55.35</v>
       </c>
     </row>
     <row r="433" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A433" s="1">
-        <v>44302</v>
+        <v>44456</v>
       </c>
       <c r="B433">
-        <v>53.68</v>
+        <v>54.44</v>
       </c>
     </row>
     <row r="434" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A434" s="1">
-        <v>44301</v>
+        <v>44459</v>
       </c>
       <c r="B434">
-        <v>53.33</v>
+        <v>54.06</v>
       </c>
     </row>
     <row r="435" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A435" s="1">
-        <v>44300</v>
+        <v>44460</v>
       </c>
       <c r="B435">
-        <v>53.08</v>
+        <v>54.05</v>
       </c>
     </row>
     <row r="436" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A436" s="1">
-        <v>44299</v>
+        <v>44461</v>
       </c>
       <c r="B436">
-        <v>53.09</v>
+        <v>54.13</v>
       </c>
     </row>
     <row r="437" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A437" s="1">
-        <v>44298</v>
+        <v>44462</v>
       </c>
       <c r="B437">
-        <v>53.35</v>
+        <v>54.04</v>
       </c>
     </row>
     <row r="438" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A438" s="1">
-        <v>44295</v>
+        <v>44463</v>
       </c>
       <c r="B438">
-        <v>53.18</v>
+        <v>53.89</v>
       </c>
     </row>
     <row r="439" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A439" s="1">
-        <v>44294</v>
+        <v>44466</v>
       </c>
       <c r="B439">
-        <v>53.12</v>
+        <v>53.61</v>
       </c>
     </row>
     <row r="440" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A440" s="1">
-        <v>44293</v>
+        <v>44467</v>
       </c>
       <c r="B440">
-        <v>53.28</v>
+        <v>52.64</v>
       </c>
     </row>
     <row r="441" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A441" s="1">
-        <v>44292</v>
+        <v>44468</v>
       </c>
       <c r="B441">
-        <v>53.19</v>
+        <v>52.96</v>
       </c>
     </row>
     <row r="442" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A442" s="1">
-        <v>44291</v>
+        <v>44469</v>
       </c>
       <c r="B442">
-        <v>52.81</v>
+        <v>52.47</v>
       </c>
     </row>
     <row r="443" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A443" s="1">
-        <v>44287</v>
+        <v>44470</v>
       </c>
       <c r="B443">
-        <v>52.51</v>
+        <v>53.02</v>
       </c>
     </row>
     <row r="444" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A444" s="1">
-        <v>44286</v>
+        <v>44473</v>
       </c>
       <c r="B444">
-        <v>52.71</v>
+        <v>52.99</v>
       </c>
     </row>
     <row r="445" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A445" s="1">
-        <v>44285</v>
+        <v>44474</v>
       </c>
       <c r="B445">
-        <v>53.15</v>
+        <v>53.08</v>
       </c>
     </row>
     <row r="446" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A446" s="1">
-        <v>44284</v>
+        <v>44475</v>
       </c>
       <c r="B446">
-        <v>53.85</v>
+        <v>53.71</v>
       </c>
     </row>
     <row r="447" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A447" s="1">
-        <v>44281</v>
+        <v>44476</v>
       </c>
       <c r="B447">
-        <v>53.04</v>
+        <v>53.88</v>
       </c>
     </row>
     <row r="448" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A448" s="1">
-        <v>44280</v>
+        <v>44477</v>
       </c>
       <c r="B448">
-        <v>52.02</v>
+        <v>54.12</v>
       </c>
     </row>
     <row r="449" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A449" s="1">
-        <v>44279</v>
+        <v>44480</v>
       </c>
       <c r="B449">
-        <v>51.52</v>
+        <v>54.23</v>
       </c>
     </row>
     <row r="450" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A450" s="1">
-        <v>44278</v>
+        <v>44481</v>
       </c>
       <c r="B450">
-        <v>51.39</v>
+        <v>54.23</v>
       </c>
     </row>
     <row r="451" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A451" s="1">
-        <v>44277</v>
+        <v>44482</v>
       </c>
       <c r="B451">
-        <v>51</v>
+        <v>54.24</v>
       </c>
     </row>
     <row r="452" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A452" s="1">
-        <v>44274</v>
+        <v>44483</v>
       </c>
       <c r="B452">
-        <v>50.81</v>
+        <v>54.61</v>
       </c>
     </row>
     <row r="453" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A453" s="1">
-        <v>44273</v>
+        <v>44484</v>
       </c>
       <c r="B453">
-        <v>50.57</v>
+        <v>54.48</v>
       </c>
     </row>
     <row r="454" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A454" s="1">
-        <v>44272</v>
+        <v>44487</v>
       </c>
       <c r="B454">
-        <v>51.24</v>
+        <v>53.94</v>
       </c>
     </row>
     <row r="455" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A455" s="1">
-        <v>44271</v>
+        <v>44488</v>
       </c>
       <c r="B455">
-        <v>51.22</v>
+        <v>54.15</v>
       </c>
     </row>
     <row r="456" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A456" s="1">
-        <v>44270</v>
+        <v>44489</v>
       </c>
       <c r="B456">
-        <v>51.03</v>
+        <v>54.63</v>
       </c>
     </row>
     <row r="457" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A457" s="1">
-        <v>44267</v>
+        <v>44490</v>
       </c>
       <c r="B457">
-        <v>50.36</v>
+        <v>54.35</v>
       </c>
     </row>
     <row r="458" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A458" s="1">
-        <v>44266</v>
+        <v>44491</v>
       </c>
       <c r="B458">
-        <v>50.88</v>
+        <v>54.45</v>
       </c>
     </row>
     <row r="459" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A459" s="1">
-        <v>44265</v>
+        <v>44494</v>
       </c>
       <c r="B459">
-        <v>51.44</v>
+        <v>54.23</v>
       </c>
     </row>
     <row r="460" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A460" s="1">
-        <v>44264</v>
+        <v>44495</v>
       </c>
       <c r="B460">
-        <v>50.86</v>
+        <v>54.47</v>
       </c>
     </row>
     <row r="461" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A461" s="1">
-        <v>44263</v>
+        <v>44496</v>
       </c>
       <c r="B461">
-        <v>51.64</v>
+        <v>55.52</v>
       </c>
     </row>
     <row r="462" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A462" s="1">
-        <v>44260</v>
+        <v>44497</v>
       </c>
       <c r="B462">
-        <v>50.79</v>
+        <v>56.04</v>
       </c>
     </row>
     <row r="463" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A463" s="1">
-        <v>44259</v>
+        <v>44498</v>
       </c>
       <c r="B463">
-        <v>49.94</v>
+        <v>56.37</v>
       </c>
     </row>
     <row r="464" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A464" s="1">
-        <v>44258</v>
+        <v>44501</v>
       </c>
       <c r="B464">
-        <v>49.98</v>
+        <v>56.17</v>
       </c>
     </row>
     <row r="465" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A465" s="1">
-        <v>44257</v>
+        <v>44502</v>
       </c>
       <c r="B465">
-        <v>50.1</v>
+        <v>56.1</v>
       </c>
     </row>
     <row r="466" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A466" s="1">
-        <v>44256</v>
+        <v>44503</v>
       </c>
       <c r="B466">
-        <v>49.9</v>
+        <v>56.29</v>
       </c>
     </row>
     <row r="467" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A467" s="1">
-        <v>44253</v>
+        <v>44504</v>
       </c>
       <c r="B467">
-        <v>48.99</v>
+        <v>56.6</v>
       </c>
     </row>
     <row r="468" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A468" s="1">
-        <v>44252</v>
+        <v>44505</v>
       </c>
       <c r="B468">
-        <v>50.17</v>
+        <v>56.84</v>
       </c>
     </row>
     <row r="469" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A469" s="1">
-        <v>44251</v>
+        <v>44508</v>
       </c>
       <c r="B469">
-        <v>50.71</v>
+        <v>56.33</v>
       </c>
     </row>
     <row r="470" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A470" s="1">
-        <v>44250</v>
+        <v>44509</v>
       </c>
       <c r="B470">
-        <v>50.54</v>
+        <v>56.49</v>
       </c>
     </row>
     <row r="471" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A471" s="1">
-        <v>44249</v>
+        <v>44510</v>
       </c>
       <c r="B471">
-        <v>50.63</v>
+        <v>56.72</v>
       </c>
     </row>
     <row r="472" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A472" s="1">
-        <v>44246</v>
+        <v>44511</v>
       </c>
       <c r="B472">
-        <v>50.11</v>
+        <v>56.74</v>
       </c>
     </row>
     <row r="473" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A473" s="1">
-        <v>44245</v>
+        <v>44512</v>
       </c>
       <c r="B473">
-        <v>50.77</v>
+        <v>56.61</v>
       </c>
     </row>
     <row r="474" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A474" s="1">
-        <v>44244</v>
+        <v>44515</v>
       </c>
       <c r="B474">
-        <v>50.13</v>
+        <v>56.62</v>
       </c>
     </row>
     <row r="475" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A475" s="1">
-        <v>44243</v>
+        <v>44516</v>
       </c>
       <c r="B475">
-        <v>50.27</v>
+        <v>56.22</v>
       </c>
     </row>
     <row r="476" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A476" s="1">
-        <v>44239</v>
+        <v>44517</v>
       </c>
       <c r="B476">
-        <v>50.69</v>
+        <v>55.91</v>
       </c>
     </row>
     <row r="477" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A477" s="1">
-        <v>44238</v>
+        <v>44518</v>
       </c>
       <c r="B477">
-        <v>50.3</v>
+        <v>55.41</v>
       </c>
     </row>
     <row r="478" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A478" s="1">
-        <v>44237</v>
+        <v>44519</v>
       </c>
       <c r="B478">
-        <v>49.6</v>
+        <v>55.13</v>
       </c>
     </row>
     <row r="479" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A479" s="1">
-        <v>44236</v>
+        <v>44522</v>
       </c>
       <c r="B479">
-        <v>49.7</v>
+        <v>55.47</v>
       </c>
     </row>
     <row r="480" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A480" s="1">
-        <v>44235</v>
+        <v>44523</v>
       </c>
       <c r="B480">
-        <v>49.92</v>
+        <v>55.88</v>
       </c>
     </row>
     <row r="481" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A481" s="1">
-        <v>44232</v>
+        <v>44524</v>
       </c>
       <c r="B481">
-        <v>49.65</v>
+        <v>55.43</v>
       </c>
     </row>
     <row r="482" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A482" s="1">
-        <v>44231</v>
+        <v>44526</v>
       </c>
       <c r="B482">
-        <v>49.01</v>
+        <v>53.73</v>
       </c>
     </row>
     <row r="483" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A483" s="1">
-        <v>44230</v>
+        <v>44529</v>
       </c>
       <c r="B483">
-        <v>48.77</v>
+        <v>54.58</v>
       </c>
     </row>
     <row r="484" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A484" s="1">
-        <v>44229</v>
+        <v>44530</v>
       </c>
       <c r="B484">
-        <v>48.96</v>
+        <v>52.45</v>
       </c>
     </row>
     <row r="485" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A485" s="1">
-        <v>44228</v>
+        <v>44531</v>
       </c>
       <c r="B485">
-        <v>48.48</v>
+        <v>52.3</v>
       </c>
     </row>
     <row r="486" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A486" s="1">
-        <v>44225</v>
+        <v>44532</v>
       </c>
       <c r="B486">
-        <v>48.15</v>
+        <v>53.07</v>
       </c>
     </row>
     <row r="487" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A487" s="1">
-        <v>44224</v>
+        <v>44533</v>
       </c>
       <c r="B487">
-        <v>49.15</v>
+        <v>53.54</v>
       </c>
     </row>
     <row r="488" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A488" s="1">
-        <v>44223</v>
+        <v>44536</v>
       </c>
       <c r="B488">
-        <v>48.53</v>
+        <v>54.91</v>
       </c>
     </row>
     <row r="489" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A489" s="1">
-        <v>44222</v>
+        <v>44537</v>
       </c>
       <c r="B489">
-        <v>49.29</v>
+        <v>55.21</v>
       </c>
     </row>
     <row r="490" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A490" s="1">
-        <v>44221</v>
+        <v>44538</v>
       </c>
       <c r="B490">
-        <v>48.78</v>
+        <v>55</v>
       </c>
     </row>
     <row r="491" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A491" s="1">
-        <v>44218</v>
+        <v>44539</v>
       </c>
       <c r="B491">
-        <v>48.49</v>
+        <v>54.86</v>
       </c>
     </row>
     <row r="492" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A492" s="1">
-        <v>44217</v>
+        <v>44540</v>
       </c>
       <c r="B492">
-        <v>48.95</v>
+        <v>56.28</v>
       </c>
     </row>
     <row r="493" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A493" s="1">
-        <v>44216</v>
+        <v>44543</v>
       </c>
       <c r="B493">
-        <v>48.68</v>
+        <v>57.76</v>
       </c>
     </row>
     <row r="494" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A494" s="1">
-        <v>44215</v>
+        <v>44544</v>
       </c>
       <c r="B494">
-        <v>48.51</v>
+        <v>57.8</v>
       </c>
     </row>
     <row r="495" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A495" s="1">
-        <v>44211</v>
+        <v>44545</v>
       </c>
       <c r="B495">
-        <v>48.7</v>
+        <v>58.06</v>
       </c>
     </row>
     <row r="496" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A496" s="1">
-        <v>44210</v>
+        <v>44546</v>
       </c>
       <c r="B496">
-        <v>49.23</v>
+        <v>58.65</v>
       </c>
     </row>
     <row r="497" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A497" s="1">
-        <v>44209</v>
+        <v>44547</v>
       </c>
       <c r="B497">
-        <v>50.16</v>
+        <v>57.73</v>
       </c>
     </row>
     <row r="498" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A498" s="1">
-        <v>44208</v>
+        <v>44550</v>
       </c>
       <c r="B498">
-        <v>50.11</v>
+        <v>57.54</v>
       </c>
     </row>
     <row r="499" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A499" s="1">
-        <v>44207</v>
+        <v>44551</v>
       </c>
       <c r="B499">
-        <v>50.2</v>
+        <v>57.77</v>
       </c>
     </row>
     <row r="500" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A500" s="1">
-        <v>44204</v>
+        <v>44552</v>
       </c>
       <c r="B500">
-        <v>51.08</v>
+        <v>58.18</v>
       </c>
     </row>
     <row r="501" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A501" s="1">
-        <v>44203</v>
+        <v>44553</v>
       </c>
       <c r="B501">
-        <v>49.96</v>
+        <v>58.22</v>
       </c>
     </row>
     <row r="502" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A502" s="1">
-        <v>44202</v>
+        <v>44557</v>
       </c>
       <c r="B502">
-        <v>50.52</v>
+        <v>58.65</v>
       </c>
     </row>
     <row r="503" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A503" s="1">
-        <v>44201</v>
+        <v>44558</v>
       </c>
       <c r="B503">
-        <v>52.18</v>
+        <v>58.88</v>
       </c>
     </row>
     <row r="504" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A504" s="1">
-        <v>44200</v>
+        <v>44559</v>
       </c>
       <c r="B504">
-        <v>52.76</v>
+        <v>58.95</v>
       </c>
     </row>
     <row r="505" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A505" s="1">
-        <v>44196</v>
+        <v>44560</v>
       </c>
       <c r="B505">
-        <v>54.84</v>
+        <v>58.78</v>
       </c>
     </row>
     <row r="506" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A506" s="1">
-        <v>44195</v>
+        <v>44561</v>
       </c>
       <c r="B506">
-        <v>54.44</v>
+        <v>59.21</v>
       </c>
     </row>
     <row r="507" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A507" s="1">
-        <v>44194</v>
+        <v>44564</v>
       </c>
       <c r="B507">
-        <v>54.13</v>
+        <v>59.3</v>
       </c>
     </row>
     <row r="508" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A508" s="1">
-        <v>44193</v>
+        <v>44565</v>
       </c>
       <c r="B508">
-        <v>54.16</v>
+        <v>60.29</v>
       </c>
     </row>
     <row r="509" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A509" s="1">
-        <v>44189</v>
+        <v>44566</v>
       </c>
       <c r="B509">
-        <v>53.44</v>
+        <v>60.79</v>
       </c>
     </row>
     <row r="510" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A510" s="1">
-        <v>44188</v>
+        <v>44567</v>
       </c>
       <c r="B510">
-        <v>53.08</v>
+        <v>60.47</v>
       </c>
     </row>
     <row r="511" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A511" s="1">
-        <v>44187</v>
+        <v>44568</v>
       </c>
       <c r="B511">
-        <v>52.76</v>
+        <v>60.33</v>
       </c>
     </row>
     <row r="512" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A512" s="1">
-        <v>44186</v>
+        <v>44571</v>
       </c>
       <c r="B512">
-        <v>52.81</v>
+        <v>60.43</v>
       </c>
     </row>
     <row r="513" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A513" s="1">
-        <v>44183</v>
+        <v>44572</v>
       </c>
       <c r="B513">
-        <v>53.74</v>
+        <v>60.45</v>
       </c>
     </row>
     <row r="514" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A514" s="1">
-        <v>44182</v>
+        <v>44573</v>
       </c>
       <c r="B514">
-        <v>53.27</v>
+        <v>60.54</v>
       </c>
     </row>
     <row r="515" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A515" s="1">
-        <v>44181</v>
+        <v>44574</v>
       </c>
       <c r="B515">
-        <v>53.06</v>
+        <v>60.9</v>
       </c>
     </row>
     <row r="516" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A516" s="1">
-        <v>44180</v>
+        <v>44575</v>
       </c>
       <c r="B516">
-        <v>53.84</v>
+        <v>61.39</v>
       </c>
     </row>
     <row r="517" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A517" s="1">
-        <v>44179</v>
+        <v>44579</v>
       </c>
       <c r="B517">
-        <v>53.27</v>
+        <v>60.9</v>
       </c>
     </row>
     <row r="518" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A518" s="1">
-        <v>44176</v>
+        <v>44580</v>
       </c>
       <c r="B518">
-        <v>53.35</v>
+        <v>61</v>
       </c>
     </row>
     <row r="519" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A519" s="1">
-        <v>44175</v>
+        <v>44581</v>
       </c>
       <c r="B519">
-        <v>53.05</v>
+        <v>60.75</v>
       </c>
     </row>
     <row r="520" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A520" s="1">
-        <v>44174</v>
+        <v>44582</v>
       </c>
       <c r="B520">
-        <v>53.33</v>
+        <v>60.45</v>
       </c>
     </row>
     <row r="521" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A521" s="1">
-        <v>44173</v>
+        <v>44585</v>
       </c>
       <c r="B521">
-        <v>53.18</v>
+        <v>59.96</v>
       </c>
     </row>
     <row r="522" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A522" s="1">
-        <v>44172</v>
+        <v>44586</v>
       </c>
       <c r="B522">
-        <v>52.99</v>
+        <v>59.82</v>
       </c>
     </row>
     <row r="523" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A523" s="1">
-        <v>44169</v>
+        <v>44587</v>
       </c>
       <c r="B523">
-        <v>53.85</v>
+        <v>59.6</v>
       </c>
     </row>
     <row r="524" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A524" s="1">
-        <v>44168</v>
+        <v>44588</v>
       </c>
       <c r="B524">
-        <v>52.78</v>
+        <v>59.65</v>
       </c>
     </row>
     <row r="525" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A525" s="1">
-        <v>44167</v>
+        <v>44589</v>
       </c>
       <c r="B525">
-        <v>52.11</v>
+        <v>60.84</v>
       </c>
     </row>
     <row r="526" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A526" s="1">
-        <v>44166</v>
+        <v>44592</v>
       </c>
       <c r="B526">
-        <v>52.04</v>
+        <v>61.01</v>
       </c>
     </row>
     <row r="527" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A527" s="1">
-        <v>44165</v>
+        <v>44593</v>
       </c>
       <c r="B527">
-        <v>51.6</v>
+        <v>60.56</v>
       </c>
     </row>
     <row r="528" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A528" s="1">
-        <v>44162</v>
+        <v>44594</v>
       </c>
       <c r="B528">
-        <v>52.7</v>
+        <v>61.18</v>
       </c>
     </row>
     <row r="529" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A529" s="1">
-        <v>44160</v>
+        <v>44595</v>
       </c>
       <c r="B529">
-        <v>52.93</v>
+        <v>61.61</v>
       </c>
     </row>
     <row r="530" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A530" s="1">
-        <v>44159</v>
+        <v>44596</v>
       </c>
       <c r="B530">
-        <v>53.22</v>
+        <v>60.96</v>
       </c>
     </row>
     <row r="531" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A531" s="1">
-        <v>44158</v>
+        <v>44599</v>
       </c>
       <c r="B531">
-        <v>52.68</v>
+        <v>61.6</v>
       </c>
     </row>
     <row r="532" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A532" s="1">
-        <v>44155</v>
+        <v>44600</v>
       </c>
       <c r="B532">
-        <v>52.67</v>
+        <v>62</v>
       </c>
     </row>
     <row r="533" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A533" s="1">
-        <v>44154</v>
+        <v>44601</v>
       </c>
       <c r="B533">
-        <v>53.13</v>
+        <v>61.04</v>
       </c>
     </row>
     <row r="534" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A534" s="1">
-        <v>44153</v>
+        <v>44602</v>
       </c>
       <c r="B534">
-        <v>52.61</v>
+        <v>61.38</v>
       </c>
     </row>
     <row r="535" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A535" s="1">
-        <v>44152</v>
+        <v>44603</v>
       </c>
       <c r="B535">
-        <v>53.68</v>
+        <v>60.29</v>
       </c>
     </row>
     <row r="536" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A536" s="1">
-        <v>44151</v>
+        <v>44606</v>
       </c>
       <c r="B536">
-        <v>53.85</v>
+        <v>60.68</v>
       </c>
     </row>
     <row r="537" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A537" s="1">
-        <v>44148</v>
+        <v>44607</v>
       </c>
       <c r="B537">
-        <v>53.45</v>
+        <v>60.91</v>
       </c>
     </row>
     <row r="538" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A538" s="1">
-        <v>44147</v>
+        <v>44608</v>
       </c>
       <c r="B538">
-        <v>53.01</v>
+        <v>60.9</v>
       </c>
     </row>
     <row r="539" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A539" s="1">
-        <v>44146</v>
+        <v>44609</v>
       </c>
       <c r="B539">
-        <v>53.58</v>
+        <v>62.12</v>
       </c>
     </row>
     <row r="540" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A540" s="1">
-        <v>44145</v>
+        <v>44610</v>
       </c>
       <c r="B540">
-        <v>53.98</v>
+        <v>62.54</v>
       </c>
     </row>
     <row r="541" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A541" s="1">
-        <v>44144</v>
+        <v>44614</v>
       </c>
       <c r="B541">
-        <v>52.57</v>
+        <v>62.28</v>
       </c>
     </row>
     <row r="542" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A542" s="1">
-        <v>44141</v>
+        <v>44615</v>
       </c>
       <c r="B542">
-        <v>49.45</v>
+        <v>61.59</v>
       </c>
     </row>
     <row r="543" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A543" s="1">
-        <v>44140</v>
+        <v>44616</v>
       </c>
       <c r="B543">
-        <v>49.44</v>
+        <v>60.51</v>
       </c>
     </row>
     <row r="544" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A544" s="1">
-        <v>44139</v>
+        <v>44617</v>
       </c>
       <c r="B544">
-        <v>49.17</v>
+        <v>62.85</v>
       </c>
     </row>
     <row r="545" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A545" s="1">
-        <v>44138</v>
+        <v>44620</v>
       </c>
       <c r="B545">
-        <v>49.35</v>
+        <v>62.24</v>
       </c>
     </row>
     <row r="546" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A546" s="1">
-        <v>44137</v>
+        <v>44621</v>
       </c>
       <c r="B546">
-        <v>48.62</v>
+        <v>61.97</v>
       </c>
     </row>
     <row r="547" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A547" s="1">
-        <v>44134</v>
+        <v>44622</v>
       </c>
       <c r="B547">
-        <v>48.06</v>
+        <v>62.43</v>
       </c>
     </row>
     <row r="548" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A548" s="1">
-        <v>44133</v>
+        <v>44623</v>
       </c>
       <c r="B548">
-        <v>48.02</v>
+        <v>62.47</v>
       </c>
     </row>
     <row r="549" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A549" s="1">
-        <v>44132</v>
+        <v>44624</v>
       </c>
       <c r="B549">
-        <v>47.96</v>
+        <v>62.57</v>
       </c>
     </row>
     <row r="550" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A550" s="1">
-        <v>44131</v>
+        <v>44627</v>
       </c>
       <c r="B550">
-        <v>49.9</v>
+        <v>61.08</v>
       </c>
     </row>
     <row r="551" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A551" s="1">
-        <v>44130</v>
+        <v>44628</v>
       </c>
       <c r="B551">
-        <v>49.8</v>
+        <v>58.66</v>
       </c>
     </row>
     <row r="552" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A552" s="1">
-        <v>44127</v>
+        <v>44629</v>
       </c>
       <c r="B552">
-        <v>50.52</v>
+        <v>58.96</v>
       </c>
     </row>
     <row r="553" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A553" s="1">
-        <v>44126</v>
+        <v>44630</v>
       </c>
       <c r="B553">
-        <v>50.68</v>
+        <v>57.88</v>
       </c>
     </row>
     <row r="554" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A554" s="1">
-        <v>44125</v>
+        <v>44631</v>
       </c>
       <c r="B554">
-        <v>49.99</v>
+        <v>57.92</v>
       </c>
     </row>
     <row r="555" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A555" s="1">
-        <v>44124</v>
+        <v>44634</v>
       </c>
       <c r="B555">
-        <v>50.25</v>
+        <v>58.54</v>
       </c>
     </row>
     <row r="556" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A556" s="1">
-        <v>44123</v>
+        <v>44635</v>
       </c>
       <c r="B556">
-        <v>49.62</v>
+        <v>59.62</v>
       </c>
     </row>
     <row r="557" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A557" s="1">
-        <v>44120</v>
+        <v>44636</v>
       </c>
       <c r="B557">
-        <v>50.03</v>
+        <v>59.46</v>
       </c>
     </row>
     <row r="558" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A558" s="1">
-        <v>44119</v>
+        <v>44637</v>
       </c>
       <c r="B558">
-        <v>49.99</v>
+        <v>60.09</v>
       </c>
     </row>
     <row r="559" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A559" s="1">
-        <v>44118</v>
+        <v>44638</v>
       </c>
       <c r="B559">
-        <v>50.12</v>
+        <v>60.1</v>
       </c>
     </row>
     <row r="560" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A560" s="1">
-        <v>44117</v>
+        <v>44641</v>
       </c>
       <c r="B560">
-        <v>50.22</v>
+        <v>60.58</v>
       </c>
     </row>
     <row r="561" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A561" s="1">
-        <v>44116</v>
+        <v>44642</v>
       </c>
       <c r="B561">
-        <v>51.09</v>
+        <v>60.8</v>
       </c>
     </row>
     <row r="562" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A562" s="1">
-        <v>44113</v>
+        <v>44643</v>
       </c>
       <c r="B562">
-        <v>50.81</v>
+        <v>60.4</v>
       </c>
     </row>
     <row r="563" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A563" s="1">
-        <v>44112</v>
+        <v>44644</v>
       </c>
       <c r="B563">
-        <v>50.46</v>
+        <v>60.98</v>
       </c>
     </row>
     <row r="564" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A564" s="1">
-        <v>44111</v>
+        <v>44645</v>
       </c>
       <c r="B564">
-        <v>49.56</v>
+        <v>61.53</v>
       </c>
     </row>
     <row r="565" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A565" s="1">
-        <v>44110</v>
+        <v>44648</v>
       </c>
       <c r="B565">
-        <v>48.94</v>
+        <v>61.92</v>
       </c>
     </row>
     <row r="566" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A566" s="1">
-        <v>44109</v>
+        <v>44649</v>
       </c>
       <c r="B566">
-        <v>49.38</v>
+        <v>62.16</v>
       </c>
     </row>
     <row r="567" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A567" s="1">
-        <v>44106</v>
+        <v>44650</v>
       </c>
       <c r="B567">
-        <v>49.36</v>
+        <v>62.21</v>
       </c>
     </row>
     <row r="568" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A568" s="1">
-        <v>44105</v>
+        <v>44651</v>
       </c>
       <c r="B568">
-        <v>49.18</v>
+        <v>62</v>
       </c>
     </row>
     <row r="569" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A569" s="1">
-        <v>44104</v>
+        <v>44652</v>
       </c>
       <c r="B569">
-        <v>49.37</v>
+        <v>62.87</v>
       </c>
     </row>
     <row r="570" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A570" s="1">
-        <v>44103</v>
+        <v>44655</v>
       </c>
       <c r="B570">
-        <v>48.92</v>
+        <v>62.54</v>
       </c>
     </row>
     <row r="571" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A571" s="1">
-        <v>44102</v>
+        <v>44656</v>
       </c>
       <c r="B571">
-        <v>49.28</v>
+        <v>62.47</v>
       </c>
     </row>
     <row r="572" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A572" s="1">
-        <v>44099</v>
+        <v>44657</v>
       </c>
       <c r="B572">
-        <v>48.72</v>
+        <v>63.1</v>
       </c>
     </row>
     <row r="573" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A573" s="1">
-        <v>44098</v>
+        <v>44658</v>
       </c>
       <c r="B573">
-        <v>48.7</v>
+        <v>63.44</v>
       </c>
     </row>
     <row r="574" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A574" s="1">
-        <v>44097</v>
+        <v>44659</v>
       </c>
       <c r="B574">
-        <v>48.21</v>
+        <v>63.83</v>
       </c>
     </row>
     <row r="575" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A575" s="1">
-        <v>44096</v>
+        <v>44662</v>
       </c>
       <c r="B575">
-        <v>49.66</v>
+        <v>63.81</v>
       </c>
     </row>
     <row r="576" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A576" s="1">
-        <v>44095</v>
+        <v>44663</v>
       </c>
       <c r="B576">
-        <v>49.09</v>
+        <v>64.56</v>
       </c>
     </row>
     <row r="577" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A577" s="1">
-        <v>44092</v>
+        <v>44664</v>
       </c>
       <c r="B577">
-        <v>50.45</v>
+        <v>64.73</v>
       </c>
     </row>
     <row r="578" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A578" s="1">
-        <v>44091</v>
+        <v>44665</v>
       </c>
       <c r="B578">
-        <v>50.55</v>
+        <v>65.02</v>
       </c>
     </row>
     <row r="579" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A579" s="1">
-        <v>44090</v>
+        <v>44669</v>
       </c>
       <c r="B579">
-        <v>50.79</v>
+        <v>64.44</v>
       </c>
     </row>
     <row r="580" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A580" s="1">
-        <v>44089</v>
+        <v>44670</v>
       </c>
       <c r="B580">
-        <v>51.05</v>
+        <v>65.069999999999993</v>
       </c>
     </row>
     <row r="581" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A581" s="1">
-        <v>44088</v>
+        <v>44671</v>
       </c>
       <c r="B581">
-        <v>50.71</v>
+        <v>65.959999999999994</v>
       </c>
     </row>
     <row r="582" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A582" s="1">
-        <v>44085</v>
+        <v>44672</v>
       </c>
       <c r="B582">
-        <v>51.06</v>
+        <v>66.209999999999994</v>
       </c>
     </row>
     <row r="583" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A583" s="1">
-        <v>44084</v>
+        <v>44673</v>
       </c>
       <c r="B583">
-        <v>50</v>
+        <v>65.25</v>
       </c>
     </row>
     <row r="584" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A584" s="1">
-        <v>44083</v>
+        <v>44676</v>
       </c>
       <c r="B584">
-        <v>50.19</v>
+        <v>65.94</v>
       </c>
     </row>
     <row r="585" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A585" s="1">
-        <v>44082</v>
+        <v>44677</v>
       </c>
       <c r="B585">
-        <v>49.81</v>
+        <v>65.05</v>
       </c>
     </row>
     <row r="586" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A586" s="1">
-        <v>44078</v>
+        <v>44678</v>
       </c>
       <c r="B586">
-        <v>51.04</v>
+        <v>65.56</v>
       </c>
     </row>
     <row r="587" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A587" s="1">
-        <v>44077</v>
+        <v>44679</v>
       </c>
       <c r="B587">
-        <v>50.48</v>
+        <v>66.19</v>
       </c>
     </row>
     <row r="588" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A588" s="1">
-        <v>44076</v>
+        <v>44680</v>
       </c>
       <c r="B588">
-        <v>51.19</v>
+        <v>64.61</v>
       </c>
     </row>
     <row r="589" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A589" s="1">
-        <v>44075</v>
+        <v>44683</v>
       </c>
       <c r="B589">
-        <v>49.12</v>
+        <v>63.44</v>
       </c>
     </row>
     <row r="590" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A590" s="1">
-        <v>44074</v>
+        <v>44684</v>
       </c>
       <c r="B590">
-        <v>49.53</v>
+        <v>63.08</v>
       </c>
     </row>
     <row r="591" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A591" s="1">
-        <v>44071</v>
+        <v>44685</v>
       </c>
       <c r="B591">
-        <v>49.83</v>
+        <v>65.03</v>
       </c>
     </row>
     <row r="592" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A592" s="1">
-        <v>44070</v>
+        <v>44686</v>
       </c>
       <c r="B592">
-        <v>48.23</v>
+        <v>64.510000000000005</v>
       </c>
     </row>
     <row r="593" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A593" s="1">
-        <v>44069</v>
+        <v>44687</v>
       </c>
       <c r="B593">
-        <v>48.16</v>
+        <v>64.739999999999995</v>
       </c>
     </row>
     <row r="594" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A594" s="1">
-        <v>44068</v>
+        <v>44690</v>
       </c>
       <c r="B594">
-        <v>47.91</v>
+        <v>64.61</v>
       </c>
     </row>
     <row r="595" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A595" s="1">
-        <v>44067</v>
+        <v>44691</v>
       </c>
       <c r="B595">
-        <v>47.97</v>
+        <v>64.010000000000005</v>
       </c>
     </row>
     <row r="596" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A596" s="1">
-        <v>44064</v>
+        <v>44692</v>
       </c>
       <c r="B596">
-        <v>47.28</v>
+        <v>64.31</v>
       </c>
     </row>
     <row r="597" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A597" s="1">
-        <v>44063</v>
+        <v>44693</v>
       </c>
       <c r="B597">
-        <v>47.35</v>
+        <v>64.510000000000005</v>
       </c>
     </row>
     <row r="598" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A598" s="1">
-        <v>44062</v>
+        <v>44694</v>
       </c>
       <c r="B598">
-        <v>47.37</v>
+        <v>65.72</v>
       </c>
     </row>
     <row r="599" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A599" s="1">
-        <v>44061</v>
+        <v>44697</v>
       </c>
       <c r="B599">
-        <v>48.42</v>
+        <v>65.959999999999994</v>
       </c>
     </row>
     <row r="600" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A600" s="1">
-        <v>44060</v>
+        <v>44698</v>
       </c>
       <c r="B600">
-        <v>48.21</v>
+        <v>65.78</v>
       </c>
     </row>
     <row r="601" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A601" s="1">
-        <v>44057</v>
+        <v>44699</v>
       </c>
       <c r="B601">
-        <v>48.45</v>
+        <v>61.2</v>
       </c>
     </row>
     <row r="602" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A602" s="1">
-        <v>44056</v>
+        <v>44700</v>
       </c>
       <c r="B602">
-        <v>48.38</v>
+        <v>60</v>
       </c>
     </row>
     <row r="603" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A603" s="1">
-        <v>44055</v>
+        <v>44701</v>
       </c>
       <c r="B603">
-        <v>48.43</v>
+        <v>60.98</v>
       </c>
     </row>
     <row r="604" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A604" s="1">
-        <v>44054</v>
+        <v>44704</v>
       </c>
       <c r="B604">
-        <v>47.93</v>
+        <v>62.86</v>
       </c>
     </row>
     <row r="605" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A605" s="1">
-        <v>44053</v>
+        <v>44705</v>
       </c>
       <c r="B605">
-        <v>47.72</v>
+        <v>64.02</v>
       </c>
     </row>
     <row r="606" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A606" s="1">
-        <v>44050</v>
+        <v>44706</v>
       </c>
       <c r="B606">
-        <v>47.8</v>
+        <v>64.069999999999993</v>
       </c>
     </row>
     <row r="607" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A607" s="1">
-        <v>44049</v>
+        <v>44707</v>
       </c>
       <c r="B607">
-        <v>47.48</v>
+        <v>64.3</v>
       </c>
     </row>
     <row r="608" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A608" s="1">
-        <v>44048</v>
+        <v>44708</v>
       </c>
       <c r="B608">
-        <v>47.22</v>
+        <v>64.680000000000007</v>
       </c>
     </row>
     <row r="609" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A609" s="1">
-        <v>44047</v>
+        <v>44712</v>
       </c>
       <c r="B609">
-        <v>46.69</v>
+        <v>63.38</v>
       </c>
     </row>
     <row r="610" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A610" s="1">
-        <v>44046</v>
+        <v>44713</v>
       </c>
       <c r="B610">
-        <v>46.3</v>
+        <v>63.07</v>
       </c>
     </row>
     <row r="611" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A611" s="1">
-        <v>44043</v>
+        <v>44714</v>
       </c>
       <c r="B611">
-        <v>47.24</v>
+        <v>63.73</v>
       </c>
     </row>
     <row r="612" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A612" s="1">
-        <v>44042</v>
+        <v>44715</v>
       </c>
       <c r="B612">
-        <v>47.69</v>
+        <v>62.97</v>
       </c>
     </row>
     <row r="613" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A613" s="1">
-        <v>44041</v>
+        <v>44718</v>
       </c>
       <c r="B613">
-        <v>48.02</v>
+        <v>62.87</v>
       </c>
     </row>
     <row r="614" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A614" s="1">
-        <v>44040</v>
+        <v>44719</v>
       </c>
       <c r="B614">
-        <v>48.18</v>
+        <v>63.25</v>
       </c>
     </row>
     <row r="615" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A615" s="1">
-        <v>44039</v>
+        <v>44720</v>
       </c>
       <c r="B615">
-        <v>48.48</v>
+        <v>62.89</v>
       </c>
     </row>
     <row r="616" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A616" s="1">
-        <v>44036</v>
+        <v>44721</v>
       </c>
       <c r="B616">
-        <v>48.49</v>
+        <v>61.8</v>
       </c>
     </row>
     <row r="617" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A617" s="1">
-        <v>44035</v>
+        <v>44722</v>
       </c>
       <c r="B617">
-        <v>48.28</v>
+        <v>61.41</v>
       </c>
     </row>
     <row r="618" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A618" s="1">
-        <v>44034</v>
+        <v>44725</v>
       </c>
       <c r="B618">
-        <v>48.48</v>
+        <v>61.34</v>
       </c>
     </row>
     <row r="619" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A619" s="1">
-        <v>44033</v>
+        <v>44726</v>
       </c>
       <c r="B619">
-        <v>47.2</v>
+        <v>59.23</v>
       </c>
     </row>
     <row r="620" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A620" s="1">
-        <v>44032</v>
+        <v>44727</v>
       </c>
       <c r="B620">
-        <v>46.12</v>
+        <v>59.67</v>
       </c>
     </row>
     <row r="621" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A621" s="1">
-        <v>44029</v>
+        <v>44728</v>
       </c>
       <c r="B621">
-        <v>46.82</v>
+        <v>59.07</v>
       </c>
     </row>
     <row r="622" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A622" s="1">
-        <v>44028</v>
+        <v>44729</v>
       </c>
       <c r="B622">
-        <v>46.15</v>
+        <v>59.43</v>
       </c>
     </row>
     <row r="623" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A623" s="1">
-        <v>44027</v>
+        <v>44733</v>
       </c>
       <c r="B623">
-        <v>46.4</v>
+        <v>60.7</v>
       </c>
     </row>
     <row r="624" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A624" s="1">
-        <v>44026</v>
+        <v>44734</v>
       </c>
       <c r="B624">
-        <v>45.87</v>
+        <v>61.15</v>
       </c>
     </row>
     <row r="625" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A625" s="1">
-        <v>44025</v>
+        <v>44735</v>
       </c>
       <c r="B625">
-        <v>45.25</v>
+        <v>61.88</v>
       </c>
     </row>
     <row r="626" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A626" s="1">
-        <v>44022</v>
+        <v>44736</v>
       </c>
       <c r="B626">
-        <v>45.15</v>
+        <v>63.04</v>
       </c>
     </row>
     <row r="627" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A627" s="1">
-        <v>44021</v>
+        <v>44739</v>
       </c>
       <c r="B627">
-        <v>43.91</v>
+        <v>62.91</v>
       </c>
     </row>
     <row r="628" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A628" s="1">
-        <v>44020</v>
+        <v>44740</v>
       </c>
       <c r="B628">
-        <v>45.07</v>
+        <v>62.28</v>
       </c>
     </row>
     <row r="629" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A629" s="1">
-        <v>44019</v>
+        <v>44741</v>
       </c>
       <c r="B629">
-        <v>45.21</v>
+        <v>62.73</v>
       </c>
     </row>
     <row r="630" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A630" s="1">
-        <v>44018</v>
+        <v>44742</v>
       </c>
       <c r="B630">
-        <v>45.23</v>
+        <v>62.91</v>
       </c>
     </row>
     <row r="631" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A631" s="1">
-        <v>44014</v>
+        <v>44743</v>
       </c>
       <c r="B631">
-        <v>44.88</v>
+        <v>64.38</v>
       </c>
     </row>
     <row r="632" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A632" s="1">
-        <v>44013</v>
+        <v>44747</v>
       </c>
       <c r="B632">
-        <v>44.82</v>
+        <v>63.28</v>
       </c>
     </row>
     <row r="633" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A633" s="1">
-        <v>44012</v>
+        <v>44748</v>
       </c>
       <c r="B633">
-        <v>44.68</v>
+        <v>63.41</v>
       </c>
     </row>
     <row r="634" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A634" s="1">
-        <v>44011</v>
+        <v>44749</v>
       </c>
       <c r="B634">
-        <v>44.36</v>
+        <v>62.91</v>
       </c>
     </row>
     <row r="635" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A635" s="1">
-        <v>44008</v>
+        <v>44750</v>
       </c>
       <c r="B635">
-        <v>43.57</v>
+        <v>63.14</v>
       </c>
     </row>
     <row r="636" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A636" s="1">
-        <v>44007</v>
+        <v>44753</v>
       </c>
       <c r="B636">
-        <v>44.93</v>
+        <v>62.94</v>
       </c>
     </row>
     <row r="637" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A637" s="1">
-        <v>44006</v>
+        <v>44754</v>
       </c>
       <c r="B637">
-        <v>44.65</v>
+        <v>62.67</v>
       </c>
     </row>
     <row r="638" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A638" s="1">
-        <v>44005</v>
+        <v>44755</v>
       </c>
       <c r="B638">
-        <v>45.64</v>
+        <v>62.38</v>
       </c>
     </row>
     <row r="639" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A639" s="1">
-        <v>44004</v>
+        <v>44756</v>
       </c>
       <c r="B639">
-        <v>45.74</v>
+        <v>62.18</v>
       </c>
     </row>
     <row r="640" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A640" s="1">
-        <v>44001</v>
+        <v>44757</v>
       </c>
       <c r="B640">
-        <v>46.02</v>
+        <v>62.5</v>
       </c>
     </row>
     <row r="641" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A641" s="1">
-        <v>44000</v>
+        <v>44760</v>
       </c>
       <c r="B641">
-        <v>46.99</v>
+        <v>61.65</v>
       </c>
     </row>
     <row r="642" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A642" s="1">
-        <v>43999</v>
+        <v>44761</v>
       </c>
       <c r="B642">
-        <v>46.58</v>
+        <v>62.53</v>
       </c>
     </row>
     <row r="643" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A643" s="1">
-        <v>43998</v>
+        <v>44762</v>
       </c>
       <c r="B643">
-        <v>46.77</v>
+        <v>61.5</v>
       </c>
     </row>
     <row r="644" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A644" s="1">
-        <v>43997</v>
+        <v>44763</v>
       </c>
       <c r="B644">
-        <v>46.3</v>
+        <v>61.36</v>
       </c>
     </row>
     <row r="645" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A645" s="1">
-        <v>43994</v>
+        <v>44764</v>
       </c>
       <c r="B645">
-        <v>45.6</v>
+        <v>61.59</v>
       </c>
     </row>
     <row r="646" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A646" s="1">
-        <v>43993</v>
+        <v>44767</v>
       </c>
       <c r="B646">
-        <v>45.54</v>
+        <v>62.19</v>
       </c>
     </row>
     <row r="647" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A647" s="1">
-        <v>43992</v>
+        <v>44768</v>
       </c>
       <c r="B647">
-        <v>48.62</v>
+        <v>63.21</v>
       </c>
     </row>
     <row r="648" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A648" s="1">
-        <v>43991</v>
+        <v>44769</v>
       </c>
       <c r="B648">
-        <v>49</v>
+        <v>63.01</v>
       </c>
     </row>
     <row r="649" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A649" s="1">
-        <v>43990</v>
+        <v>44770</v>
       </c>
       <c r="B649">
-        <v>49.85</v>
+        <v>64.06</v>
       </c>
     </row>
     <row r="650" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A650" s="1">
-        <v>43987</v>
+        <v>44771</v>
       </c>
       <c r="B650">
-        <v>49.09</v>
+        <v>64.17</v>
       </c>
     </row>
     <row r="651" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A651" s="1">
-        <v>43986</v>
+        <v>44774</v>
       </c>
       <c r="B651">
-        <v>47.92</v>
+        <v>64.52</v>
       </c>
     </row>
     <row r="652" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A652" s="1">
-        <v>43985</v>
+        <v>44775</v>
       </c>
       <c r="B652">
-        <v>47.9</v>
+        <v>63.64</v>
       </c>
     </row>
     <row r="653" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A653" s="1">
-        <v>43984</v>
+        <v>44776</v>
       </c>
       <c r="B653">
-        <v>46.9</v>
+        <v>63.92</v>
       </c>
     </row>
     <row r="654" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A654" s="1">
-        <v>43983</v>
+        <v>44777</v>
       </c>
       <c r="B654">
-        <v>46.99</v>
+        <v>63.67</v>
       </c>
     </row>
     <row r="655" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A655" s="1">
-        <v>43980</v>
+        <v>44778</v>
       </c>
       <c r="B655">
-        <v>46.68</v>
+        <v>63.38</v>
       </c>
     </row>
     <row r="656" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A656" s="1">
-        <v>43979</v>
+        <v>44781</v>
       </c>
       <c r="B656">
-        <v>47.09</v>
+        <v>62.97</v>
       </c>
     </row>
     <row r="657" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A657" s="1">
-        <v>43978</v>
+        <v>44782</v>
       </c>
       <c r="B657">
-        <v>46.73</v>
+        <v>63.05</v>
       </c>
     </row>
     <row r="658" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A658" s="1">
-        <v>43977</v>
+        <v>44783</v>
       </c>
       <c r="B658">
-        <v>46.09</v>
+        <v>63.65</v>
       </c>
     </row>
     <row r="659" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A659" s="1">
-        <v>43973</v>
+        <v>44784</v>
       </c>
       <c r="B659">
-        <v>45.03</v>
+        <v>63.22</v>
       </c>
     </row>
     <row r="660" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A660" s="1">
-        <v>43972</v>
+        <v>44785</v>
       </c>
       <c r="B660">
-        <v>45.17</v>
+        <v>63.7</v>
       </c>
     </row>
     <row r="661" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A661" s="1">
-        <v>43971</v>
+        <v>44788</v>
       </c>
       <c r="B661">
-        <v>45.89</v>
+        <v>64.5</v>
       </c>
     </row>
     <row r="662" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A662" s="1">
-        <v>43970</v>
+        <v>44789</v>
       </c>
       <c r="B662">
-        <v>44.54</v>
+        <v>65.03</v>
       </c>
     </row>
     <row r="663" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A663" s="1">
-        <v>43969</v>
+        <v>44790</v>
       </c>
       <c r="B663">
-        <v>44.97</v>
+        <v>64.88</v>
       </c>
     </row>
     <row r="664" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A664" s="1">
-        <v>43966</v>
+        <v>44791</v>
       </c>
       <c r="B664">
-        <v>43.26</v>
+        <v>65.22</v>
       </c>
     </row>
     <row r="665" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A665" s="1">
-        <v>43965</v>
+        <v>44792</v>
       </c>
       <c r="B665">
-        <v>43.7</v>
+        <v>65.17</v>
       </c>
     </row>
     <row r="666" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A666" s="1">
-        <v>43964</v>
+        <v>44795</v>
       </c>
       <c r="B666">
-        <v>43.94</v>
+        <v>64.2</v>
       </c>
     </row>
     <row r="667" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A667" s="1">
-        <v>43963</v>
+        <v>44796</v>
       </c>
       <c r="B667">
-        <v>44.82</v>
+        <v>64.27</v>
       </c>
     </row>
     <row r="668" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A668" s="1">
-        <v>43962</v>
+        <v>44797</v>
       </c>
       <c r="B668">
-        <v>45.54</v>
+        <v>64.36</v>
       </c>
     </row>
     <row r="669" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A669" s="1">
-        <v>43959</v>
+        <v>44798</v>
       </c>
       <c r="B669">
-        <v>46.11</v>
+        <v>64.67</v>
       </c>
     </row>
     <row r="670" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A670" s="1">
-        <v>43958</v>
+        <v>44799</v>
       </c>
       <c r="B670">
-        <v>44.6</v>
+        <v>63.11</v>
       </c>
     </row>
     <row r="671" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A671" s="1">
-        <v>43957</v>
+        <v>44802</v>
       </c>
       <c r="B671">
-        <v>44.75</v>
+        <v>62.73</v>
       </c>
     </row>
     <row r="672" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A672" s="1">
-        <v>43956</v>
+        <v>44803</v>
       </c>
       <c r="B672">
-        <v>45.4</v>
+        <v>62.15</v>
       </c>
     </row>
     <row r="673" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A673" s="1">
-        <v>43955</v>
+        <v>44804</v>
       </c>
       <c r="B673">
-        <v>45.14</v>
+        <v>61.71</v>
       </c>
     </row>
     <row r="674" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A674" s="1">
-        <v>43952</v>
+        <v>44805</v>
       </c>
       <c r="B674">
-        <v>45.6</v>
+        <v>62</v>
       </c>
     </row>
     <row r="675" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A675" s="1">
-        <v>43951</v>
+        <v>44806</v>
       </c>
       <c r="B675">
-        <v>45.89</v>
+        <v>61.15</v>
       </c>
     </row>
     <row r="676" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A676" s="1">
-        <v>43950</v>
+        <v>44810</v>
       </c>
       <c r="B676">
-        <v>47.12</v>
+        <v>61.18</v>
       </c>
     </row>
     <row r="677" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A677" s="1">
-        <v>43949</v>
+        <v>44811</v>
       </c>
       <c r="B677">
-        <v>46.74</v>
+        <v>62.31</v>
       </c>
     </row>
     <row r="678" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A678" s="1">
-        <v>43948</v>
+        <v>44812</v>
       </c>
       <c r="B678">
-        <v>46.78</v>
+        <v>62.12</v>
       </c>
     </row>
     <row r="679" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A679" s="1">
-        <v>43945</v>
+        <v>44813</v>
       </c>
       <c r="B679">
-        <v>45.43</v>
+        <v>62.32</v>
       </c>
     </row>
     <row r="680" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A680" s="1">
-        <v>43944</v>
+        <v>44816</v>
       </c>
       <c r="B680">
-        <v>45.07</v>
+        <v>62.5</v>
       </c>
     </row>
     <row r="681" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A681" s="1">
-        <v>43943</v>
+        <v>44817</v>
       </c>
       <c r="B681">
-        <v>45.68</v>
+        <v>60.47</v>
       </c>
     </row>
     <row r="682" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A682" s="1">
-        <v>43942</v>
+        <v>44818</v>
       </c>
       <c r="B682">
-        <v>45.38</v>
+        <v>60.79</v>
       </c>
     </row>
     <row r="683" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A683" s="1">
-        <v>43941</v>
+        <v>44819</v>
       </c>
       <c r="B683">
-        <v>46.53</v>
+        <v>59.53</v>
       </c>
     </row>
     <row r="684" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A684" s="1">
-        <v>43938</v>
+        <v>44820</v>
       </c>
       <c r="B684">
-        <v>48.06</v>
+        <v>59.54</v>
       </c>
     </row>
     <row r="685" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A685" s="1">
-        <v>43937</v>
+        <v>44823</v>
       </c>
       <c r="B685">
-        <v>47.1</v>
+        <v>59.99</v>
       </c>
     </row>
     <row r="686" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A686" s="1">
-        <v>43936</v>
+        <v>44824</v>
       </c>
       <c r="B686">
-        <v>47.61</v>
+        <v>59.9</v>
       </c>
     </row>
     <row r="687" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A687" s="1">
-        <v>43935</v>
+        <v>44825</v>
       </c>
       <c r="B687">
-        <v>48.92</v>
+        <v>59.4</v>
       </c>
     </row>
     <row r="688" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A688" s="1">
-        <v>43934</v>
+        <v>44826</v>
       </c>
       <c r="B688">
-        <v>46.93</v>
+        <v>59.26</v>
       </c>
     </row>
     <row r="689" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A689" s="1">
-        <v>43930</v>
+        <v>44827</v>
       </c>
       <c r="B689">
-        <v>49</v>
+        <v>58.6</v>
       </c>
     </row>
     <row r="690" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A690" s="1">
-        <v>43929</v>
+        <v>44830</v>
       </c>
       <c r="B690">
-        <v>47.82</v>
+        <v>57.87</v>
       </c>
     </row>
     <row r="691" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A691" s="1">
-        <v>43928</v>
+        <v>44831</v>
       </c>
       <c r="B691">
-        <v>46.51</v>
+        <v>56.38</v>
       </c>
     </row>
     <row r="692" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A692" s="1">
-        <v>43927</v>
+        <v>44832</v>
       </c>
       <c r="B692">
-        <v>46.67</v>
+        <v>56.98</v>
       </c>
     </row>
     <row r="693" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A693" s="1">
-        <v>43924</v>
+        <v>44833</v>
       </c>
       <c r="B693">
-        <v>43.83</v>
+        <v>56.57</v>
       </c>
     </row>
     <row r="694" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A694" s="1">
-        <v>43923</v>
+        <v>44834</v>
       </c>
       <c r="B694">
-        <v>43.95</v>
+        <v>56.02</v>
       </c>
     </row>
     <row r="695" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A695" s="1">
-        <v>43922</v>
+        <v>44837</v>
       </c>
       <c r="B695">
-        <v>42.12</v>
+        <v>56.65</v>
       </c>
     </row>
     <row r="696" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A696" s="1">
-        <v>43921</v>
+        <v>44838</v>
       </c>
       <c r="B696">
-        <v>44.25</v>
+        <v>56.78</v>
       </c>
     </row>
     <row r="697" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A697" s="1">
-        <v>43920</v>
+        <v>44839</v>
       </c>
       <c r="B697">
-        <v>45</v>
+        <v>56.24</v>
       </c>
     </row>
     <row r="698" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A698" s="1">
-        <v>43917</v>
+        <v>44840</v>
       </c>
       <c r="B698">
-        <v>42.81</v>
+        <v>55.03</v>
       </c>
     </row>
     <row r="699" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A699" s="1">
-        <v>43916</v>
+        <v>44841</v>
       </c>
       <c r="B699">
-        <v>44.29</v>
+        <v>54.51</v>
       </c>
     </row>
     <row r="700" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A700" s="1">
-        <v>43915</v>
+        <v>44844</v>
       </c>
       <c r="B700">
-        <v>41.61</v>
+        <v>54.39</v>
       </c>
     </row>
     <row r="701" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A701" s="1">
-        <v>43914</v>
+        <v>44845</v>
       </c>
       <c r="B701">
-        <v>39.450000000000003</v>
+        <v>54.48</v>
       </c>
     </row>
     <row r="702" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A702" s="1">
-        <v>43913</v>
+        <v>44846</v>
       </c>
       <c r="B702">
-        <v>37.56</v>
+        <v>55.14</v>
       </c>
     </row>
     <row r="703" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A703" s="1">
-        <v>43910</v>
+        <v>44847</v>
       </c>
       <c r="B703">
-        <v>38.299999999999997</v>
+        <v>55.87</v>
       </c>
     </row>
     <row r="704" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A704" s="1">
-        <v>43909</v>
+        <v>44848</v>
       </c>
       <c r="B704">
-        <v>41.83</v>
+        <v>54.98</v>
       </c>
     </row>
     <row r="705" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A705" s="1">
-        <v>43908</v>
+        <v>44851</v>
       </c>
       <c r="B705">
-        <v>44.85</v>
+        <v>55.69</v>
       </c>
     </row>
     <row r="706" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A706" s="1">
-        <v>43907</v>
+        <v>44852</v>
       </c>
       <c r="B706">
-        <v>47.18</v>
+        <v>56.44</v>
       </c>
     </row>
     <row r="707" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A707" s="1">
-        <v>43906</v>
+        <v>44853</v>
       </c>
       <c r="B707">
-        <v>45.26</v>
+        <v>55.96</v>
       </c>
     </row>
     <row r="708" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A708" s="1">
-        <v>43903</v>
+        <v>44854</v>
       </c>
       <c r="B708">
-        <v>48.47</v>
+        <v>55.08</v>
       </c>
     </row>
     <row r="709" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A709" s="1">
-        <v>43902</v>
+        <v>44855</v>
       </c>
       <c r="B709">
-        <v>47.16</v>
+        <v>55.96</v>
       </c>
     </row>
     <row r="710" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A710" s="1">
-        <v>43901</v>
+        <v>44858</v>
       </c>
       <c r="B710">
-        <v>52.21</v>
+        <v>57.57</v>
       </c>
     </row>
     <row r="711" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A711" s="1">
-        <v>43900</v>
+        <v>44859</v>
       </c>
       <c r="B711">
-        <v>53.66</v>
+        <v>58.95</v>
       </c>
     </row>
     <row r="712" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A712" s="1">
-        <v>43899</v>
+        <v>44860</v>
       </c>
       <c r="B712">
-        <v>51.86</v>
+        <v>59.39</v>
       </c>
     </row>
     <row r="713" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A713" s="1">
-        <v>43896</v>
+        <v>44861</v>
       </c>
       <c r="B713">
-        <v>55.26</v>
+        <v>59.53</v>
       </c>
     </row>
     <row r="714" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A714" s="1">
-        <v>43895</v>
+        <v>44862</v>
       </c>
       <c r="B714">
-        <v>56.74</v>
+        <v>60.76</v>
       </c>
     </row>
     <row r="715" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A715" s="1">
-        <v>43894</v>
+        <v>44865</v>
       </c>
       <c r="B715">
-        <v>58.92</v>
+        <v>59.85</v>
       </c>
     </row>
     <row r="716" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A716" s="1">
-        <v>43893</v>
+        <v>44866</v>
       </c>
       <c r="B716">
-        <v>56.06</v>
+        <v>59.64</v>
       </c>
     </row>
     <row r="717" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A717" s="1">
-        <v>43892</v>
+        <v>44867</v>
       </c>
       <c r="B717">
-        <v>55.92</v>
+        <v>58.81</v>
       </c>
     </row>
     <row r="718" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A718" s="1">
-        <v>43889</v>
+        <v>44868</v>
       </c>
       <c r="B718">
-        <v>53.49</v>
+        <v>58.78</v>
       </c>
     </row>
     <row r="719" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A719" s="1">
-        <v>43888</v>
+        <v>44869</v>
       </c>
       <c r="B719">
-        <v>54.93</v>
+        <v>59.26</v>
       </c>
     </row>
     <row r="720" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A720" s="1">
-        <v>43887</v>
+        <v>44872</v>
       </c>
       <c r="B720">
-        <v>57.6</v>
+        <v>59.49</v>
       </c>
     </row>
     <row r="721" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A721" s="1">
-        <v>43886</v>
+        <v>44873</v>
       </c>
       <c r="B721">
-        <v>57.82</v>
+        <v>59.6</v>
       </c>
     </row>
     <row r="722" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A722" s="1">
-        <v>43885</v>
+        <v>44874</v>
       </c>
       <c r="B722">
-        <v>58.65</v>
+        <v>58.77</v>
       </c>
     </row>
     <row r="723" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A723" s="1">
-        <v>43882</v>
+        <v>44875</v>
       </c>
       <c r="B723">
-        <v>60.13</v>
+        <v>60.88</v>
       </c>
     </row>
     <row r="724" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A724" s="1">
-        <v>43881</v>
+        <v>44876</v>
       </c>
       <c r="B724">
-        <v>59.72</v>
+        <v>61.32</v>
       </c>
     </row>
     <row r="725" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A725" s="1">
-        <v>43880</v>
+        <v>44879</v>
       </c>
       <c r="B725">
-        <v>59.77</v>
+        <v>60.73</v>
       </c>
     </row>
     <row r="726" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A726" s="1">
-        <v>43879</v>
+        <v>44880</v>
       </c>
       <c r="B726">
-        <v>59.53</v>
+        <v>60.63</v>
       </c>
     </row>
     <row r="727" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A727" s="1">
-        <v>43875</v>
+        <v>44881</v>
       </c>
       <c r="B727">
-        <v>59.95</v>
+        <v>60.52</v>
       </c>
     </row>
     <row r="728" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A728" s="1">
-        <v>43874</v>
+        <v>44882</v>
       </c>
       <c r="B728">
-        <v>59.61</v>
+        <v>60.71</v>
       </c>
     </row>
     <row r="729" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A729" s="1">
-        <v>43873</v>
+        <v>44883</v>
       </c>
       <c r="B729">
-        <v>59.41</v>
+        <v>61.14</v>
       </c>
     </row>
     <row r="730" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A730" s="1">
-        <v>43872</v>
+        <v>44886</v>
       </c>
       <c r="B730">
-        <v>59.59</v>
+        <v>62.08</v>
       </c>
     </row>
     <row r="731" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A731" s="1">
-        <v>43871</v>
+        <v>44887</v>
       </c>
       <c r="B731">
-        <v>59.75</v>
+        <v>62.35</v>
       </c>
     </row>
     <row r="732" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A732" s="1">
-        <v>43868</v>
+        <v>44888</v>
       </c>
       <c r="B732">
-        <v>59.19</v>
+        <v>62.63</v>
       </c>
     </row>
     <row r="733" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A733" s="1">
-        <v>43867</v>
+        <v>44890</v>
       </c>
       <c r="B733">
-        <v>58.99</v>
+        <v>62.69</v>
       </c>
     </row>
     <row r="734" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A734" s="1">
-        <v>43866</v>
+        <v>44893</v>
       </c>
       <c r="B734">
-        <v>58.85</v>
+        <v>62.7</v>
       </c>
     </row>
     <row r="735" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A735" s="1">
-        <v>43865</v>
+        <v>44894</v>
       </c>
       <c r="B735">
-        <v>58.84</v>
+        <v>62.48</v>
       </c>
     </row>
     <row r="736" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A736" s="1">
-        <v>43864</v>
+        <v>44895</v>
       </c>
       <c r="B736">
-        <v>58.58</v>
+        <v>63.61</v>
       </c>
     </row>
     <row r="737" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A737" s="1">
-        <v>43861</v>
+        <v>44896</v>
       </c>
       <c r="B737">
-        <v>58.4</v>
+        <v>63.79</v>
       </c>
     </row>
     <row r="738" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A738" s="1">
-        <v>43860</v>
+        <v>44897</v>
       </c>
       <c r="B738">
-        <v>58.86</v>
+        <v>64.349999999999994</v>
       </c>
     </row>
     <row r="739" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A739" s="1">
-        <v>43859</v>
+        <v>44900</v>
       </c>
       <c r="B739">
-        <v>57.01</v>
+        <v>63.47</v>
       </c>
     </row>
     <row r="740" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A740" s="1">
-        <v>43858</v>
+        <v>44901</v>
       </c>
       <c r="B740">
-        <v>57.01</v>
+        <v>63.44</v>
       </c>
     </row>
     <row r="741" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A741" s="1">
-        <v>43857</v>
+        <v>44902</v>
       </c>
       <c r="B741">
-        <v>57.48</v>
+        <v>63.54</v>
       </c>
     </row>
     <row r="742" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A742" s="1">
-        <v>43854</v>
+        <v>44903</v>
       </c>
       <c r="B742">
-        <v>57.68</v>
+        <v>63.81</v>
       </c>
     </row>
     <row r="743" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A743" s="1">
-        <v>43853</v>
+        <v>44904</v>
       </c>
       <c r="B743">
-        <v>57.83</v>
+        <v>63.14</v>
       </c>
     </row>
     <row r="744" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A744" s="1">
-        <v>43852</v>
+        <v>44907</v>
       </c>
       <c r="B744">
-        <v>57.61</v>
+        <v>63.97</v>
       </c>
     </row>
     <row r="745" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A745" s="1">
-        <v>43851</v>
+        <v>44908</v>
       </c>
       <c r="B745">
-        <v>57.17</v>
+        <v>63.99</v>
       </c>
     </row>
     <row r="746" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A746" s="1">
-        <v>43847</v>
+        <v>44909</v>
       </c>
       <c r="B746">
-        <v>56.94</v>
+        <v>63.99</v>
       </c>
     </row>
     <row r="747" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A747" s="1">
-        <v>43846</v>
+        <v>44910</v>
       </c>
       <c r="B747">
-        <v>56.82</v>
+        <v>63.11</v>
       </c>
     </row>
     <row r="748" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A748" s="1">
-        <v>43845</v>
+        <v>44911</v>
       </c>
       <c r="B748">
-        <v>56.7</v>
+        <v>62.75</v>
       </c>
     </row>
     <row r="749" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A749" s="1">
-        <v>43844</v>
+        <v>44914</v>
       </c>
       <c r="B749">
-        <v>56</v>
+        <v>62.84</v>
       </c>
     </row>
     <row r="750" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A750" s="1">
-        <v>43843</v>
+        <v>44915</v>
       </c>
       <c r="B750">
-        <v>56.13</v>
+        <v>62.79</v>
       </c>
     </row>
     <row r="751" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A751" s="1">
-        <v>43840</v>
+        <v>44916</v>
       </c>
       <c r="B751">
-        <v>55.53</v>
+        <v>63.8</v>
       </c>
     </row>
     <row r="752" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A752" s="1">
-        <v>43839</v>
+        <v>44917</v>
       </c>
       <c r="B752">
-        <v>55.34</v>
+        <v>63.34</v>
       </c>
     </row>
     <row r="753" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A753" s="1">
-        <v>43838</v>
+        <v>44918</v>
       </c>
       <c r="B753">
-        <v>54.35</v>
+        <v>63.82</v>
       </c>
     </row>
     <row r="754" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A754" s="1">
-        <v>43837</v>
+        <v>44922</v>
       </c>
       <c r="B754">
-        <v>54.25</v>
+        <v>64.209999999999994</v>
       </c>
     </row>
     <row r="755" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A755" s="1">
-        <v>43836</v>
+        <v>44923</v>
       </c>
       <c r="B755">
-        <v>54.67</v>
+        <v>63.57</v>
       </c>
     </row>
     <row r="756" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A756" s="1">
-        <v>43833</v>
+        <v>44924</v>
       </c>
       <c r="B756">
-        <v>54.69</v>
+        <v>63.95</v>
       </c>
     </row>
     <row r="757" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A757" s="1">
-        <v>43832</v>
+        <v>44925</v>
       </c>
       <c r="B757">
-        <v>54.99</v>
+        <v>63.61</v>
       </c>
     </row>
   </sheetData>
